--- a/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.728924171632</v>
+        <v>21.72892417163206</v>
       </c>
       <c r="C2">
-        <v>8.684883466761351</v>
+        <v>8.684883466761194</v>
       </c>
       <c r="D2">
-        <v>3.820171110088603</v>
+        <v>3.820171110088608</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.9515129820845</v>
+        <v>35.95151298208448</v>
       </c>
       <c r="G2">
-        <v>28.1033749662428</v>
+        <v>28.10337496624279</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.06998192033753</v>
+        <v>17.06998192033755</v>
       </c>
       <c r="K2">
-        <v>30.01398249181542</v>
+        <v>30.01398249181533</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.16844724509997</v>
+        <v>20.16844724510001</v>
       </c>
       <c r="C3">
-        <v>8.25442286359848</v>
+        <v>8.254422863598283</v>
       </c>
       <c r="D3">
-        <v>3.874872393218458</v>
+        <v>3.874872393218286</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.99294179332767</v>
+        <v>33.99294179332772</v>
       </c>
       <c r="G3">
         <v>26.72213745840687</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.92168236747023</v>
+        <v>15.9216823674702</v>
       </c>
       <c r="K3">
-        <v>27.71677674379722</v>
+        <v>27.71677674379733</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.16414562747008</v>
+        <v>19.16414562747001</v>
       </c>
       <c r="C4">
-        <v>7.977757813237975</v>
+        <v>7.97775781323798</v>
       </c>
       <c r="D4">
-        <v>3.910096859596314</v>
+        <v>3.910096859596315</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.77836732486271</v>
+        <v>32.77836732486283</v>
       </c>
       <c r="G4">
-        <v>25.87333259283934</v>
+        <v>25.87333259283944</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.18295427510219</v>
+        <v>15.18295427510212</v>
       </c>
       <c r="K4">
-        <v>26.2543214386625</v>
+        <v>26.25432143866244</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.74299566483663</v>
+        <v>18.7429956648366</v>
       </c>
       <c r="C5">
-        <v>7.861946425114643</v>
+        <v>7.86194642511474</v>
       </c>
       <c r="D5">
-        <v>3.924823176496076</v>
+        <v>3.924823176495937</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.28065419350463</v>
+        <v>32.2806541935046</v>
       </c>
       <c r="G5">
-        <v>25.52741727049059</v>
+        <v>25.52741727049051</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.87329287213101</v>
+        <v>14.87329287213099</v>
       </c>
       <c r="K5">
-        <v>25.64454980249546</v>
+        <v>25.64454980249544</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.67233821799204</v>
+        <v>18.67233821799197</v>
       </c>
       <c r="C6">
-        <v>7.842532111946516</v>
+        <v>7.842532111946442</v>
       </c>
       <c r="D6">
-        <v>3.927289920109163</v>
+        <v>3.927289920109156</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.19785237753972</v>
+        <v>32.19785237753985</v>
       </c>
       <c r="G6">
-        <v>25.46998334458308</v>
+        <v>25.46998334458317</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.82134882223526</v>
+        <v>14.82134882223521</v>
       </c>
       <c r="K6">
-        <v>25.54244351847234</v>
+        <v>25.54244351847239</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.15851434363257</v>
+        <v>19.1585143436325</v>
       </c>
       <c r="C7">
-        <v>7.976208302240587</v>
+        <v>7.976208302240415</v>
       </c>
       <c r="D7">
-        <v>3.910294004492085</v>
+        <v>3.910294004492142</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.77166574952957</v>
+        <v>32.77166574952953</v>
       </c>
       <c r="G7">
-        <v>25.86866726776409</v>
+        <v>25.86866726776407</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.17881318178896</v>
+        <v>15.17881318178887</v>
       </c>
       <c r="K7">
-        <v>26.24615467909911</v>
+        <v>26.24615467909913</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.20027542207478</v>
+        <v>21.2002754220748</v>
       </c>
       <c r="C8">
-        <v>8.539046784393786</v>
+        <v>8.539046784393809</v>
       </c>
       <c r="D8">
-        <v>3.838665800915805</v>
+        <v>3.838665800915806</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.27879860218221</v>
+        <v>35.27879860218211</v>
       </c>
       <c r="G8">
-        <v>27.62734248309612</v>
+        <v>27.62734248309602</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.68093334350409</v>
+        <v>16.68093334350412</v>
       </c>
       <c r="K8">
-        <v>29.23221475663327</v>
+        <v>29.23221475663334</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.8521116740538</v>
+        <v>24.85211167405367</v>
       </c>
       <c r="C9">
-        <v>9.543449188080142</v>
+        <v>9.543449188080075</v>
       </c>
       <c r="D9">
-        <v>3.713477651253772</v>
+        <v>3.713477651253948</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.09658509450214</v>
+        <v>40.09658509450208</v>
       </c>
       <c r="G9">
-        <v>31.06846045703027</v>
+        <v>31.06846045703028</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.36794367378145</v>
+        <v>19.36794367378136</v>
       </c>
       <c r="K9">
-        <v>34.71462798502161</v>
+        <v>34.71462798502152</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.34335227970695</v>
+        <v>27.34335227970704</v>
       </c>
       <c r="C10">
-        <v>10.21969789766265</v>
+        <v>10.21969789766263</v>
       </c>
       <c r="D10">
-        <v>3.634989672499771</v>
+        <v>3.634989672499926</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.58381808461593</v>
+        <v>43.58381808461602</v>
       </c>
       <c r="G10">
-        <v>33.59820551473224</v>
+        <v>33.59820551473231</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.1986126514405</v>
+        <v>21.19861265144063</v>
       </c>
       <c r="K10">
-        <v>38.58065325777216</v>
+        <v>38.58065325777219</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.4412593595944</v>
+        <v>28.44125935959444</v>
       </c>
       <c r="C11">
-        <v>10.51378987162908</v>
+        <v>10.51378987162928</v>
       </c>
       <c r="D11">
-        <v>3.603531890414915</v>
+        <v>3.603531890414867</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.16444630791803</v>
+        <v>45.16444630791793</v>
       </c>
       <c r="G11">
-        <v>34.75362002571568</v>
+        <v>34.75362002571556</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.00424472766343</v>
+        <v>22.00424472766347</v>
       </c>
       <c r="K11">
-        <v>40.32323648434912</v>
+        <v>40.32323648434916</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85255883844937</v>
+        <v>28.85255883844953</v>
       </c>
       <c r="C12">
-        <v>10.6231933210106</v>
+        <v>10.62319332101056</v>
       </c>
       <c r="D12">
-        <v>3.592380657029962</v>
+        <v>3.592380657030022</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.76292843333655</v>
+        <v>45.76292843333678</v>
       </c>
       <c r="G12">
-        <v>35.19239319895377</v>
+        <v>35.19239319895394</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.30582207986517</v>
+        <v>22.30582207986524</v>
       </c>
       <c r="K12">
-        <v>40.98284510242902</v>
+        <v>40.98284510242918</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.76416479892329</v>
+        <v>28.76416479892344</v>
       </c>
       <c r="C13">
-        <v>10.59971894902267</v>
+        <v>10.59971894902239</v>
       </c>
       <c r="D13">
-        <v>3.594745586149286</v>
+        <v>3.594745586149239</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.63402255788806</v>
+        <v>45.63402255788824</v>
       </c>
       <c r="G13">
-        <v>35.09782871328878</v>
+        <v>35.09782871328889</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.2410202303021</v>
+        <v>22.24102023030214</v>
       </c>
       <c r="K13">
-        <v>40.840760623314</v>
+        <v>40.84076062331416</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.47518241014597</v>
+        <v>28.47518241014589</v>
       </c>
       <c r="C14">
-        <v>10.52283001001847</v>
+        <v>10.52283001001843</v>
       </c>
       <c r="D14">
-        <v>3.602598210140028</v>
+        <v>3.602598210140093</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.21367982050074</v>
+        <v>45.21367982050077</v>
       </c>
       <c r="G14">
-        <v>34.78968916200188</v>
+        <v>34.78968916200192</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.02912316741849</v>
+        <v>22.02912316741841</v>
       </c>
       <c r="K14">
-        <v>40.37749480048626</v>
+        <v>40.37749480048623</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29761319389134</v>
+        <v>28.29761319389126</v>
       </c>
       <c r="C15">
         <v>10.47547712554828</v>
       </c>
       <c r="D15">
-        <v>3.60751244636706</v>
+        <v>3.607512446367133</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.89888797802884</v>
+        <v>21.8988879780288</v>
       </c>
       <c r="K15">
-        <v>40.09376505489998</v>
+        <v>40.09376505489985</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.27094101984914</v>
+        <v>27.27094101984903</v>
       </c>
       <c r="C16">
-        <v>10.20020462069777</v>
+        <v>10.2002046206978</v>
       </c>
       <c r="D16">
-        <v>3.63714294681356</v>
+        <v>3.637142946813587</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.48046355490439</v>
+        <v>43.48046355490406</v>
       </c>
       <c r="G16">
-        <v>33.52283409057927</v>
+        <v>33.52283409057904</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.1454493235845</v>
+        <v>21.14544932358441</v>
       </c>
       <c r="K16">
-        <v>38.4666115157186</v>
+        <v>38.4666115157185</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.63246461459007</v>
+        <v>26.63246461459006</v>
       </c>
       <c r="C17">
-        <v>10.02785649788519</v>
+        <v>10.02785649788545</v>
       </c>
       <c r="D17">
-        <v>3.656503181386234</v>
+        <v>3.656503181386302</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.57411853944791</v>
+        <v>42.57411853944792</v>
       </c>
       <c r="G17">
-        <v>32.86286615176831</v>
+        <v>32.86286615176832</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.67655062237673</v>
+        <v>20.67655062237678</v>
       </c>
       <c r="K17">
-        <v>37.46559447369782</v>
+        <v>37.46559447369786</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.26185654812391</v>
+        <v>26.26185654812403</v>
       </c>
       <c r="C18">
-        <v>9.92745332017317</v>
+        <v>9.92745332017304</v>
       </c>
       <c r="D18">
-        <v>3.668027376765306</v>
+        <v>3.668027376765353</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.05221324711753</v>
+        <v>42.05221324711763</v>
       </c>
       <c r="G18">
-        <v>32.48365884978005</v>
+        <v>32.48365884978012</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.40426875782271</v>
+        <v>20.40426875782274</v>
       </c>
       <c r="K18">
-        <v>36.88817498831385</v>
+        <v>36.88817498831408</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.13577830756143</v>
+        <v>26.13577830756137</v>
       </c>
       <c r="C19">
-        <v>9.893240297321174</v>
+        <v>9.893240297321118</v>
       </c>
       <c r="D19">
-        <v>3.671992065581035</v>
+        <v>3.671992065581061</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.87538334681806</v>
+        <v>41.87538334681808</v>
       </c>
       <c r="G19">
-        <v>32.35531829822629</v>
+        <v>32.35531829822633</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.31162391668806</v>
+        <v>20.31162391668803</v>
       </c>
       <c r="K19">
-        <v>36.69233063304096</v>
+        <v>36.69233063304093</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.70077644837849</v>
+        <v>26.70077644837851</v>
       </c>
       <c r="C20">
-        <v>10.04633511231743</v>
+        <v>10.04633511231753</v>
       </c>
       <c r="D20">
-        <v>3.654401056245534</v>
+        <v>3.654401056245606</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.67065794292257</v>
+        <v>42.67065794292261</v>
       </c>
       <c r="G20">
-        <v>32.93307710576276</v>
+        <v>32.93307710576279</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>20.72673040467783</v>
       </c>
       <c r="K20">
-        <v>37.57231305030825</v>
+        <v>37.57231305030832</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.56017875882412</v>
+        <v>28.56017875882421</v>
       </c>
       <c r="C21">
-        <v>10.54546758278769</v>
+        <v>10.54546758278779</v>
       </c>
       <c r="D21">
-        <v>3.600269645166867</v>
+        <v>3.600269645166844</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.33713909175333</v>
+        <v>45.33713909175339</v>
       </c>
       <c r="G21">
-        <v>34.88015779641115</v>
+        <v>34.88015779641118</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.09145376570397</v>
+        <v>22.09145376570406</v>
       </c>
       <c r="K21">
-        <v>40.51355575093517</v>
+        <v>40.51355575093522</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.74983596573876</v>
+        <v>29.74983596573875</v>
       </c>
       <c r="C22">
-        <v>10.8602257868832</v>
+        <v>10.86022578688317</v>
       </c>
       <c r="D22">
-        <v>3.569429721994768</v>
+        <v>3.569429721994789</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.16108754038819</v>
+        <v>47.16108754038799</v>
       </c>
       <c r="G22">
-        <v>36.16471668836843</v>
+        <v>36.16471668836825</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.96324200664332</v>
+        <v>22.96324200664328</v>
       </c>
       <c r="K22">
-        <v>42.4355976919975</v>
+        <v>42.43559769199749</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.1169893313356</v>
+        <v>29.11698933133566</v>
       </c>
       <c r="C23">
-        <v>10.69328860685808</v>
+        <v>10.6932886068581</v>
       </c>
       <c r="D23">
-        <v>3.585413397127376</v>
+        <v>3.585413397127249</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.16473175827876</v>
+        <v>46.16473175827881</v>
       </c>
       <c r="G23">
-        <v>35.47614192438465</v>
+        <v>35.47614192438468</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.49963819265388</v>
+        <v>22.49963819265393</v>
       </c>
       <c r="K23">
-        <v>41.40897453698386</v>
+        <v>41.40897453698387</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.66990373902613</v>
+        <v>26.66990373902619</v>
       </c>
       <c r="C24">
-        <v>10.03798503472702</v>
+        <v>10.03798503472695</v>
       </c>
       <c r="D24">
-        <v>3.65535021141489</v>
+        <v>3.655350211414686</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>42.62701513434277</v>
       </c>
       <c r="G24">
-        <v>32.90133409810483</v>
+        <v>32.90133409810482</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.70405258247844</v>
+        <v>20.70405258247847</v>
       </c>
       <c r="K24">
         <v>37.52407171413486</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.8997183828222</v>
+        <v>23.89971838282209</v>
       </c>
       <c r="C25">
-        <v>9.282504270684406</v>
+        <v>9.282504270684404</v>
       </c>
       <c r="D25">
-        <v>3.745340738158403</v>
+        <v>3.745340738158559</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.80365404312494</v>
+        <v>38.80365404312493</v>
       </c>
       <c r="G25">
-        <v>30.13818961528036</v>
+        <v>30.13818961528038</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.66740220450087</v>
+        <v>18.6674022045008</v>
       </c>
       <c r="K25">
-        <v>33.26538849189895</v>
+        <v>33.26538849189886</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.72892417163206</v>
+        <v>21.728924171632</v>
       </c>
       <c r="C2">
-        <v>8.684883466761194</v>
+        <v>8.684883466761351</v>
       </c>
       <c r="D2">
-        <v>3.820171110088608</v>
+        <v>3.820171110088603</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.95151298208448</v>
+        <v>35.9515129820845</v>
       </c>
       <c r="G2">
-        <v>28.10337496624279</v>
+        <v>28.1033749662428</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.06998192033755</v>
+        <v>17.06998192033753</v>
       </c>
       <c r="K2">
-        <v>30.01398249181533</v>
+        <v>30.01398249181542</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.16844724510001</v>
+        <v>20.16844724509997</v>
       </c>
       <c r="C3">
-        <v>8.254422863598283</v>
+        <v>8.25442286359848</v>
       </c>
       <c r="D3">
-        <v>3.874872393218286</v>
+        <v>3.874872393218458</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.99294179332772</v>
+        <v>33.99294179332767</v>
       </c>
       <c r="G3">
         <v>26.72213745840687</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.9216823674702</v>
+        <v>15.92168236747023</v>
       </c>
       <c r="K3">
-        <v>27.71677674379733</v>
+        <v>27.71677674379722</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.16414562747001</v>
+        <v>19.16414562747008</v>
       </c>
       <c r="C4">
-        <v>7.97775781323798</v>
+        <v>7.977757813237975</v>
       </c>
       <c r="D4">
-        <v>3.910096859596315</v>
+        <v>3.910096859596314</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.77836732486283</v>
+        <v>32.77836732486271</v>
       </c>
       <c r="G4">
-        <v>25.87333259283944</v>
+        <v>25.87333259283934</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.18295427510212</v>
+        <v>15.18295427510219</v>
       </c>
       <c r="K4">
-        <v>26.25432143866244</v>
+        <v>26.2543214386625</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.7429956648366</v>
+        <v>18.74299566483663</v>
       </c>
       <c r="C5">
-        <v>7.86194642511474</v>
+        <v>7.861946425114643</v>
       </c>
       <c r="D5">
-        <v>3.924823176495937</v>
+        <v>3.924823176496076</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.2806541935046</v>
+        <v>32.28065419350463</v>
       </c>
       <c r="G5">
-        <v>25.52741727049051</v>
+        <v>25.52741727049059</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.87329287213099</v>
+        <v>14.87329287213101</v>
       </c>
       <c r="K5">
-        <v>25.64454980249544</v>
+        <v>25.64454980249546</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.67233821799197</v>
+        <v>18.67233821799204</v>
       </c>
       <c r="C6">
-        <v>7.842532111946442</v>
+        <v>7.842532111946516</v>
       </c>
       <c r="D6">
-        <v>3.927289920109156</v>
+        <v>3.927289920109163</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.19785237753985</v>
+        <v>32.19785237753972</v>
       </c>
       <c r="G6">
-        <v>25.46998334458317</v>
+        <v>25.46998334458308</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.82134882223521</v>
+        <v>14.82134882223526</v>
       </c>
       <c r="K6">
-        <v>25.54244351847239</v>
+        <v>25.54244351847234</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.1585143436325</v>
+        <v>19.15851434363257</v>
       </c>
       <c r="C7">
-        <v>7.976208302240415</v>
+        <v>7.976208302240587</v>
       </c>
       <c r="D7">
-        <v>3.910294004492142</v>
+        <v>3.910294004492085</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.77166574952953</v>
+        <v>32.77166574952957</v>
       </c>
       <c r="G7">
-        <v>25.86866726776407</v>
+        <v>25.86866726776409</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.17881318178887</v>
+        <v>15.17881318178896</v>
       </c>
       <c r="K7">
-        <v>26.24615467909913</v>
+        <v>26.24615467909911</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.2002754220748</v>
+        <v>21.20027542207478</v>
       </c>
       <c r="C8">
-        <v>8.539046784393809</v>
+        <v>8.539046784393786</v>
       </c>
       <c r="D8">
-        <v>3.838665800915806</v>
+        <v>3.838665800915805</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.27879860218211</v>
+        <v>35.27879860218221</v>
       </c>
       <c r="G8">
-        <v>27.62734248309602</v>
+        <v>27.62734248309612</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.68093334350412</v>
+        <v>16.68093334350409</v>
       </c>
       <c r="K8">
-        <v>29.23221475663334</v>
+        <v>29.23221475663327</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.85211167405367</v>
+        <v>24.8521116740538</v>
       </c>
       <c r="C9">
-        <v>9.543449188080075</v>
+        <v>9.543449188080142</v>
       </c>
       <c r="D9">
-        <v>3.713477651253948</v>
+        <v>3.713477651253772</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.09658509450208</v>
+        <v>40.09658509450214</v>
       </c>
       <c r="G9">
-        <v>31.06846045703028</v>
+        <v>31.06846045703027</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.36794367378136</v>
+        <v>19.36794367378145</v>
       </c>
       <c r="K9">
-        <v>34.71462798502152</v>
+        <v>34.71462798502161</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.34335227970704</v>
+        <v>27.34335227970695</v>
       </c>
       <c r="C10">
-        <v>10.21969789766263</v>
+        <v>10.21969789766265</v>
       </c>
       <c r="D10">
-        <v>3.634989672499926</v>
+        <v>3.634989672499771</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.58381808461602</v>
+        <v>43.58381808461593</v>
       </c>
       <c r="G10">
-        <v>33.59820551473231</v>
+        <v>33.59820551473224</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.19861265144063</v>
+        <v>21.1986126514405</v>
       </c>
       <c r="K10">
-        <v>38.58065325777219</v>
+        <v>38.58065325777216</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.44125935959444</v>
+        <v>28.4412593595944</v>
       </c>
       <c r="C11">
-        <v>10.51378987162928</v>
+        <v>10.51378987162908</v>
       </c>
       <c r="D11">
-        <v>3.603531890414867</v>
+        <v>3.603531890414915</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.16444630791793</v>
+        <v>45.16444630791803</v>
       </c>
       <c r="G11">
-        <v>34.75362002571556</v>
+        <v>34.75362002571568</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.00424472766347</v>
+        <v>22.00424472766343</v>
       </c>
       <c r="K11">
-        <v>40.32323648434916</v>
+        <v>40.32323648434912</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85255883844953</v>
+        <v>28.85255883844937</v>
       </c>
       <c r="C12">
-        <v>10.62319332101056</v>
+        <v>10.6231933210106</v>
       </c>
       <c r="D12">
-        <v>3.592380657030022</v>
+        <v>3.592380657029962</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.76292843333678</v>
+        <v>45.76292843333655</v>
       </c>
       <c r="G12">
-        <v>35.19239319895394</v>
+        <v>35.19239319895377</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.30582207986524</v>
+        <v>22.30582207986517</v>
       </c>
       <c r="K12">
-        <v>40.98284510242918</v>
+        <v>40.98284510242902</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.76416479892344</v>
+        <v>28.76416479892329</v>
       </c>
       <c r="C13">
-        <v>10.59971894902239</v>
+        <v>10.59971894902267</v>
       </c>
       <c r="D13">
-        <v>3.594745586149239</v>
+        <v>3.594745586149286</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.63402255788824</v>
+        <v>45.63402255788806</v>
       </c>
       <c r="G13">
-        <v>35.09782871328889</v>
+        <v>35.09782871328878</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.24102023030214</v>
+        <v>22.2410202303021</v>
       </c>
       <c r="K13">
-        <v>40.84076062331416</v>
+        <v>40.840760623314</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.47518241014589</v>
+        <v>28.47518241014597</v>
       </c>
       <c r="C14">
-        <v>10.52283001001843</v>
+        <v>10.52283001001847</v>
       </c>
       <c r="D14">
-        <v>3.602598210140093</v>
+        <v>3.602598210140028</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.21367982050077</v>
+        <v>45.21367982050074</v>
       </c>
       <c r="G14">
-        <v>34.78968916200192</v>
+        <v>34.78968916200188</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.02912316741841</v>
+        <v>22.02912316741849</v>
       </c>
       <c r="K14">
-        <v>40.37749480048623</v>
+        <v>40.37749480048626</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29761319389126</v>
+        <v>28.29761319389134</v>
       </c>
       <c r="C15">
         <v>10.47547712554828</v>
       </c>
       <c r="D15">
-        <v>3.607512446367133</v>
+        <v>3.60751244636706</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.8988879780288</v>
+        <v>21.89888797802884</v>
       </c>
       <c r="K15">
-        <v>40.09376505489985</v>
+        <v>40.09376505489998</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.27094101984903</v>
+        <v>27.27094101984914</v>
       </c>
       <c r="C16">
-        <v>10.2002046206978</v>
+        <v>10.20020462069777</v>
       </c>
       <c r="D16">
-        <v>3.637142946813587</v>
+        <v>3.63714294681356</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.48046355490406</v>
+        <v>43.48046355490439</v>
       </c>
       <c r="G16">
-        <v>33.52283409057904</v>
+        <v>33.52283409057927</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.14544932358441</v>
+        <v>21.1454493235845</v>
       </c>
       <c r="K16">
-        <v>38.4666115157185</v>
+        <v>38.4666115157186</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.63246461459006</v>
+        <v>26.63246461459007</v>
       </c>
       <c r="C17">
-        <v>10.02785649788545</v>
+        <v>10.02785649788519</v>
       </c>
       <c r="D17">
-        <v>3.656503181386302</v>
+        <v>3.656503181386234</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.57411853944792</v>
+        <v>42.57411853944791</v>
       </c>
       <c r="G17">
-        <v>32.86286615176832</v>
+        <v>32.86286615176831</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.67655062237678</v>
+        <v>20.67655062237673</v>
       </c>
       <c r="K17">
-        <v>37.46559447369786</v>
+        <v>37.46559447369782</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.26185654812403</v>
+        <v>26.26185654812391</v>
       </c>
       <c r="C18">
-        <v>9.92745332017304</v>
+        <v>9.92745332017317</v>
       </c>
       <c r="D18">
-        <v>3.668027376765353</v>
+        <v>3.668027376765306</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.05221324711763</v>
+        <v>42.05221324711753</v>
       </c>
       <c r="G18">
-        <v>32.48365884978012</v>
+        <v>32.48365884978005</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.40426875782274</v>
+        <v>20.40426875782271</v>
       </c>
       <c r="K18">
-        <v>36.88817498831408</v>
+        <v>36.88817498831385</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.13577830756137</v>
+        <v>26.13577830756143</v>
       </c>
       <c r="C19">
-        <v>9.893240297321118</v>
+        <v>9.893240297321174</v>
       </c>
       <c r="D19">
-        <v>3.671992065581061</v>
+        <v>3.671992065581035</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.87538334681808</v>
+        <v>41.87538334681806</v>
       </c>
       <c r="G19">
-        <v>32.35531829822633</v>
+        <v>32.35531829822629</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.31162391668803</v>
+        <v>20.31162391668806</v>
       </c>
       <c r="K19">
-        <v>36.69233063304093</v>
+        <v>36.69233063304096</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.70077644837851</v>
+        <v>26.70077644837849</v>
       </c>
       <c r="C20">
-        <v>10.04633511231753</v>
+        <v>10.04633511231743</v>
       </c>
       <c r="D20">
-        <v>3.654401056245606</v>
+        <v>3.654401056245534</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.67065794292261</v>
+        <v>42.67065794292257</v>
       </c>
       <c r="G20">
-        <v>32.93307710576279</v>
+        <v>32.93307710576276</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>20.72673040467783</v>
       </c>
       <c r="K20">
-        <v>37.57231305030832</v>
+        <v>37.57231305030825</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.56017875882421</v>
+        <v>28.56017875882412</v>
       </c>
       <c r="C21">
-        <v>10.54546758278779</v>
+        <v>10.54546758278769</v>
       </c>
       <c r="D21">
-        <v>3.600269645166844</v>
+        <v>3.600269645166867</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.33713909175339</v>
+        <v>45.33713909175333</v>
       </c>
       <c r="G21">
-        <v>34.88015779641118</v>
+        <v>34.88015779641115</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.09145376570406</v>
+        <v>22.09145376570397</v>
       </c>
       <c r="K21">
-        <v>40.51355575093522</v>
+        <v>40.51355575093517</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.74983596573875</v>
+        <v>29.74983596573876</v>
       </c>
       <c r="C22">
-        <v>10.86022578688317</v>
+        <v>10.8602257868832</v>
       </c>
       <c r="D22">
-        <v>3.569429721994789</v>
+        <v>3.569429721994768</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.16108754038799</v>
+        <v>47.16108754038819</v>
       </c>
       <c r="G22">
-        <v>36.16471668836825</v>
+        <v>36.16471668836843</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.96324200664328</v>
+        <v>22.96324200664332</v>
       </c>
       <c r="K22">
-        <v>42.43559769199749</v>
+        <v>42.4355976919975</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.11698933133566</v>
+        <v>29.1169893313356</v>
       </c>
       <c r="C23">
-        <v>10.6932886068581</v>
+        <v>10.69328860685808</v>
       </c>
       <c r="D23">
-        <v>3.585413397127249</v>
+        <v>3.585413397127376</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.16473175827881</v>
+        <v>46.16473175827876</v>
       </c>
       <c r="G23">
-        <v>35.47614192438468</v>
+        <v>35.47614192438465</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.49963819265393</v>
+        <v>22.49963819265388</v>
       </c>
       <c r="K23">
-        <v>41.40897453698387</v>
+        <v>41.40897453698386</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.66990373902619</v>
+        <v>26.66990373902613</v>
       </c>
       <c r="C24">
-        <v>10.03798503472695</v>
+        <v>10.03798503472702</v>
       </c>
       <c r="D24">
-        <v>3.655350211414686</v>
+        <v>3.65535021141489</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>42.62701513434277</v>
       </c>
       <c r="G24">
-        <v>32.90133409810482</v>
+        <v>32.90133409810483</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.70405258247847</v>
+        <v>20.70405258247844</v>
       </c>
       <c r="K24">
         <v>37.52407171413486</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.89971838282209</v>
+        <v>23.8997183828222</v>
       </c>
       <c r="C25">
-        <v>9.282504270684404</v>
+        <v>9.282504270684406</v>
       </c>
       <c r="D25">
-        <v>3.745340738158559</v>
+        <v>3.745340738158403</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.80365404312493</v>
+        <v>38.80365404312494</v>
       </c>
       <c r="G25">
-        <v>30.13818961528038</v>
+        <v>30.13818961528036</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.6674022045008</v>
+        <v>18.66740220450087</v>
       </c>
       <c r="K25">
-        <v>33.26538849189886</v>
+        <v>33.26538849189895</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.728924171632</v>
+        <v>21.72812413307508</v>
       </c>
       <c r="C2">
-        <v>8.684883466761351</v>
+        <v>8.68370183820895</v>
       </c>
       <c r="D2">
-        <v>3.820171110088603</v>
+        <v>3.815198148014089</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.9515129820845</v>
+        <v>35.91512814487847</v>
       </c>
       <c r="G2">
-        <v>28.1033749662428</v>
+        <v>27.15178084504918</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.13912234906078</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.06998192033753</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>30.01398249181542</v>
+        <v>17.06906561014678</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>30.01355321239575</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.16844724509997</v>
+        <v>20.16791293962644</v>
       </c>
       <c r="C3">
-        <v>8.25442286359848</v>
+        <v>8.253578981545301</v>
       </c>
       <c r="D3">
-        <v>3.874872393218458</v>
+        <v>3.870360092921887</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.99294179332767</v>
+        <v>33.95909275166628</v>
       </c>
       <c r="G3">
-        <v>26.72213745840687</v>
+        <v>25.53686037166727</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.75649505554383</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.92168236747023</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>27.71677674379722</v>
+        <v>15.92104840750446</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>27.71650872418175</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.16414562747008</v>
+        <v>19.16376605358617</v>
       </c>
       <c r="C4">
-        <v>7.977757813237975</v>
+        <v>7.977131021567649</v>
       </c>
       <c r="D4">
-        <v>3.910096859596314</v>
+        <v>3.905853006903674</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.77836732486271</v>
+        <v>32.74614320036161</v>
       </c>
       <c r="G4">
-        <v>25.87333259283934</v>
+        <v>24.52969125465479</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.90688484538371</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.18295427510219</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>26.2543214386625</v>
+        <v>15.18249255117265</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26.25413937001419</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.74299566483663</v>
+        <v>18.74267740023381</v>
       </c>
       <c r="C5">
-        <v>7.861946425114643</v>
+        <v>7.861410785462247</v>
       </c>
       <c r="D5">
-        <v>3.924823176496076</v>
+        <v>3.920685596077187</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.28065419350463</v>
+        <v>32.24910976071862</v>
       </c>
       <c r="G5">
-        <v>25.52741727049059</v>
+        <v>24.11549099876211</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.56065401364966</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.87329287213101</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>25.64454980249546</v>
+        <v>14.87290144097983</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>25.64440004205522</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.67233821799204</v>
+        <v>18.67203003830891</v>
       </c>
       <c r="C6">
-        <v>7.842532111946516</v>
+        <v>7.842011777308734</v>
       </c>
       <c r="D6">
-        <v>3.927289920109163</v>
+        <v>3.923169811392066</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.19785237753972</v>
+        <v>32.16642187409975</v>
       </c>
       <c r="G6">
-        <v>25.46998334458308</v>
+        <v>24.04649234630513</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.5031684812839</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.82134882223526</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>25.54244351847234</v>
+        <v>14.82096908053959</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25.54229897325748</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.15851434363257</v>
+        <v>19.1581356031962</v>
       </c>
       <c r="C7">
-        <v>7.976208302240587</v>
+        <v>7.975582728682899</v>
       </c>
       <c r="D7">
-        <v>3.910294004492085</v>
+        <v>3.906051597035289</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.77166574952957</v>
+        <v>32.73945072020897</v>
       </c>
       <c r="G7">
-        <v>25.86866726776409</v>
+        <v>24.52412018540797</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.90221521310042</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.17881318178896</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>26.24615467909911</v>
+        <v>15.17835240492579</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26.24597305650089</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.20027542207478</v>
+        <v>21.19956900109521</v>
       </c>
       <c r="C8">
-        <v>8.539046784393786</v>
+        <v>8.537979742572428</v>
       </c>
       <c r="D8">
-        <v>3.838665800915805</v>
+        <v>3.833854976236081</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.27879860218221</v>
+        <v>35.24327434550846</v>
       </c>
       <c r="G8">
-        <v>27.62734248309612</v>
+        <v>26.59824866825985</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.66260106355428</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.68093334350409</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>29.23221475663327</v>
+        <v>16.68011486292599</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>29.23184416855524</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.8521116740538</v>
+        <v>24.85067539093069</v>
       </c>
       <c r="C9">
-        <v>9.543449188080142</v>
+        <v>9.541582362723517</v>
       </c>
       <c r="D9">
-        <v>3.713477651253772</v>
+        <v>3.707413409239992</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.09658509450214</v>
+        <v>40.05507835982286</v>
       </c>
       <c r="G9">
-        <v>31.06846045703027</v>
+        <v>30.54168988691563</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.10742978368937</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.36794367378145</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>34.71462798502161</v>
+        <v>19.36639567456645</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>34.71375018206552</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.34335227970695</v>
+        <v>27.3412908104596</v>
       </c>
       <c r="C10">
-        <v>10.21969789766265</v>
+        <v>10.21726774040779</v>
       </c>
       <c r="D10">
-        <v>3.634989672499771</v>
+        <v>3.627883167049009</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.58381808461593</v>
+        <v>43.53816160522847</v>
       </c>
       <c r="G10">
-        <v>33.59820551473224</v>
+        <v>33.37347030225684</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.64008997546104</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.1986126514405</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>38.58065325777216</v>
+        <v>21.19648077692839</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>38.57925677106253</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.4412593595944</v>
+        <v>28.43888323980129</v>
       </c>
       <c r="C11">
-        <v>10.51378987162908</v>
+        <v>10.51110498310174</v>
       </c>
       <c r="D11">
-        <v>3.603531890414915</v>
+        <v>3.59591612028182</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.16444630791803</v>
+        <v>45.11693491999355</v>
       </c>
       <c r="G11">
-        <v>34.75362002571568</v>
+        <v>34.65284062980481</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.79686710205739</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.00424472766343</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>40.32323648434912</v>
+        <v>22.00182812150863</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>40.32155107619333</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85255883844937</v>
+        <v>28.85005798246372</v>
       </c>
       <c r="C12">
-        <v>10.6231933210106</v>
+        <v>10.6204118564696</v>
       </c>
       <c r="D12">
-        <v>3.592380657029962</v>
+        <v>3.584566227151921</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.76292843333655</v>
+        <v>45.71471705429179</v>
       </c>
       <c r="G12">
-        <v>35.19239319895377</v>
+        <v>35.13672297364724</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>35.23616120806803</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.30582207986517</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>40.98284510242902</v>
+        <v>22.30329395825542</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>40.98104005156698</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.76416479892329</v>
+        <v>28.76169107897636</v>
       </c>
       <c r="C13">
-        <v>10.59971894902267</v>
+        <v>10.59695829456791</v>
       </c>
       <c r="D13">
-        <v>3.594745586149286</v>
+        <v>3.586974211975379</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.63402255788806</v>
+        <v>45.58596187014036</v>
       </c>
       <c r="G13">
-        <v>35.09782871328878</v>
+        <v>35.0325231028205</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>35.14148431515077</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.2410202303021</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>40.840760623314</v>
+        <v>22.23851630745107</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>40.8389818468855</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.47518241014597</v>
+        <v>28.47279614848769</v>
       </c>
       <c r="C14">
-        <v>10.52283001001847</v>
+        <v>10.52013718043515</v>
       </c>
       <c r="D14">
-        <v>3.602598210140028</v>
+        <v>3.5949662170497</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.21367982050074</v>
+        <v>45.16611081074836</v>
       </c>
       <c r="G14">
-        <v>34.78968916200188</v>
+        <v>34.69265698936274</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.83297899845487</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.02912316741849</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>40.37749480048626</v>
+        <v>22.02669746710931</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>40.37579977276002</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29761319389134</v>
+        <v>28.29527973307579</v>
       </c>
       <c r="C15">
-        <v>10.47547712554828</v>
+        <v>10.47282581532689</v>
       </c>
       <c r="D15">
-        <v>3.60751244636706</v>
+        <v>3.599965048429619</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.95622613268169</v>
+        <v>44.9089585265356</v>
       </c>
       <c r="G15">
-        <v>34.60112749072734</v>
+        <v>34.48442671357842</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.64419392002401</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>21.89888797802884</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>40.09376505489998</v>
+        <v>21.89650967820262</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>40.09211989915316</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.27094101984914</v>
+        <v>27.26889940701482</v>
       </c>
       <c r="C16">
-        <v>10.20020462069777</v>
+        <v>10.19779111348212</v>
       </c>
       <c r="D16">
-        <v>3.63714294681356</v>
+        <v>3.630068951506764</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.48046355490439</v>
+        <v>43.43492877588068</v>
       </c>
       <c r="G16">
-        <v>33.52283409057927</v>
+        <v>33.28973619791165</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.56463020839747</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.1454493235845</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>38.4666115157186</v>
+        <v>21.14333559659331</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>38.46523264129678</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.63246461459007</v>
+        <v>26.6305935150909</v>
       </c>
       <c r="C17">
-        <v>10.02785649788519</v>
+        <v>10.02558903683264</v>
       </c>
       <c r="D17">
-        <v>3.656503181386234</v>
+        <v>3.649710070756737</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.57411853944791</v>
+        <v>42.5296537487796</v>
       </c>
       <c r="G17">
-        <v>32.86286615176831</v>
+        <v>32.55499032012042</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>32.90389209066595</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.67655062237673</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>37.46559447369782</v>
+        <v>20.67459370114407</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>37.46436379311483</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.26185654812391</v>
+        <v>26.26008076651038</v>
       </c>
       <c r="C18">
-        <v>9.92745332017317</v>
+        <v>9.925270026638309</v>
       </c>
       <c r="D18">
-        <v>3.668027376765306</v>
+        <v>3.661392563938009</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.05221324711753</v>
+        <v>42.00836714367085</v>
       </c>
       <c r="G18">
-        <v>32.48365884978005</v>
+        <v>32.13150090582523</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.52424525306564</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.40426875782271</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>36.88817498831385</v>
+        <v>20.40240029478346</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>36.88702475845053</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.13577830756143</v>
+        <v>26.13403435783464</v>
       </c>
       <c r="C19">
-        <v>9.893240297321174</v>
+        <v>9.891085539704337</v>
       </c>
       <c r="D19">
-        <v>3.671992065581035</v>
+        <v>3.665410312635224</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.87538334681806</v>
+        <v>41.83174734041097</v>
       </c>
       <c r="G19">
-        <v>32.35531829822629</v>
+        <v>31.98794575072163</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.39575648514587</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.31162391668806</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>36.69233063304096</v>
+        <v>20.30978513172669</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>36.69120688609283</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.70077644837849</v>
+        <v>26.69888749066038</v>
       </c>
       <c r="C20">
-        <v>10.04633511231743</v>
+        <v>10.04405208960532</v>
       </c>
       <c r="D20">
-        <v>3.654401056245534</v>
+        <v>3.647578387765888</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.67065794292257</v>
+        <v>42.62607892770702</v>
       </c>
       <c r="G20">
-        <v>32.93307710576276</v>
+        <v>32.63329242193365</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>32.97418467673226</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.72673040467783</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>37.57231305030825</v>
+        <v>20.72475697661145</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>37.57106710574902</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.56017875882412</v>
+        <v>28.55776697170836</v>
       </c>
       <c r="C21">
-        <v>10.54546758278769</v>
+        <v>10.54275483730854</v>
       </c>
       <c r="D21">
-        <v>3.600269645166867</v>
+        <v>3.592596876357036</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.33713909175333</v>
+        <v>45.28942561996195</v>
       </c>
       <c r="G21">
-        <v>34.88015779641115</v>
+        <v>34.79249329908212</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.92355493527016</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.09145376570397</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>40.51355575093517</v>
+        <v>22.08900519849942</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>40.51183642754754</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.74983596573876</v>
+        <v>29.74704907328746</v>
       </c>
       <c r="C22">
-        <v>10.8602257868832</v>
+        <v>10.85723134962595</v>
       </c>
       <c r="D22">
-        <v>3.569429721994768</v>
+        <v>3.561167124853436</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.16108754038819</v>
+        <v>47.11092299744645</v>
       </c>
       <c r="G22">
-        <v>36.16471668836843</v>
+        <v>36.21078076612223</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>36.20528853206746</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.96324200664332</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>42.4355976919975</v>
+        <v>22.96046074952088</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>42.43350734520052</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.1169893313356</v>
+        <v>29.11440620281003</v>
       </c>
       <c r="C23">
-        <v>10.69328860685808</v>
+        <v>10.6904447083129</v>
       </c>
       <c r="D23">
-        <v>3.585413397127376</v>
+        <v>3.577468989786655</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.16473175827876</v>
+        <v>46.11563117592501</v>
       </c>
       <c r="G23">
-        <v>35.47614192438465</v>
+        <v>35.44910517742083</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>35.52024762843796</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.49963819265388</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>41.40897453698386</v>
+        <v>22.49703690488934</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>41.4070889881074</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.66990373902613</v>
+        <v>26.66802286336945</v>
       </c>
       <c r="C24">
-        <v>10.03798503472702</v>
+        <v>10.03570904678176</v>
       </c>
       <c r="D24">
-        <v>3.65535021141489</v>
+        <v>3.648540915907032</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.62701513434277</v>
+        <v>42.58248774886446</v>
       </c>
       <c r="G24">
-        <v>32.90133409810483</v>
+        <v>32.59789543608064</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>32.94240475306649</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.70405258247844</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>37.52407171413486</v>
+        <v>20.70208662235248</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>37.52283268502425</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.8997183828222</v>
+        <v>23.89849211452467</v>
       </c>
       <c r="C25">
-        <v>9.282504270684406</v>
+        <v>9.280848347477049</v>
       </c>
       <c r="D25">
-        <v>3.745340738158403</v>
+        <v>3.739634064088713</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.80365404312494</v>
+        <v>38.76371694804428</v>
       </c>
       <c r="G25">
-        <v>30.13818961528036</v>
+        <v>29.48763713151677</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.17612013663974</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.66740220450087</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>33.26538849189895</v>
+        <v>18.66605745090553</v>
       </c>
       <c r="L25">
+        <v>33.26466793741603</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.72812413307508</v>
+        <v>25.4256487877524</v>
       </c>
       <c r="C2">
-        <v>8.68370183820895</v>
+        <v>18.61819066928179</v>
       </c>
       <c r="D2">
-        <v>3.815198148014089</v>
+        <v>3.009194241749279</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.91512814487847</v>
+        <v>42.64360491436558</v>
       </c>
       <c r="G2">
-        <v>27.15178084504918</v>
+        <v>2.083686955962088</v>
       </c>
       <c r="H2">
-        <v>28.13912234906078</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.073189660595397</v>
       </c>
       <c r="K2">
-        <v>17.06906561014678</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>30.01355321239575</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.54092737167936</v>
+      </c>
+      <c r="N2">
+        <v>13.98263216646115</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.16791293962644</v>
+        <v>23.64542140069824</v>
       </c>
       <c r="C3">
-        <v>8.253578981545301</v>
+        <v>17.26418085642554</v>
       </c>
       <c r="D3">
-        <v>3.870360092921887</v>
+        <v>2.967354824684797</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.95909275166628</v>
+        <v>40.87870325609984</v>
       </c>
       <c r="G3">
-        <v>25.53686037166727</v>
+        <v>2.096658055910341</v>
       </c>
       <c r="H3">
-        <v>26.75649505554383</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.083594678694637</v>
       </c>
       <c r="K3">
-        <v>15.92104840750446</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>27.71650872418175</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.66260810824185</v>
+      </c>
+      <c r="N3">
+        <v>14.18502974126651</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.16376605358617</v>
+        <v>22.57693264553287</v>
       </c>
       <c r="C4">
-        <v>7.977131021567649</v>
+        <v>16.39523678878187</v>
       </c>
       <c r="D4">
-        <v>3.905853006903674</v>
+        <v>2.942466988370509</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.74614320036161</v>
+        <v>39.80805581410729</v>
       </c>
       <c r="G4">
-        <v>24.52969125465479</v>
+        <v>2.104771501301345</v>
       </c>
       <c r="H4">
-        <v>25.90688484538371</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.092877965318463</v>
       </c>
       <c r="K4">
-        <v>15.18249255117265</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>26.25413937001419</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.11650838270648</v>
+      </c>
+      <c r="N4">
+        <v>14.31420636858175</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.74267740023381</v>
+        <v>22.13235056248431</v>
       </c>
       <c r="C5">
-        <v>7.861410785462247</v>
+        <v>16.03151906130823</v>
       </c>
       <c r="D5">
-        <v>3.920685596077187</v>
+        <v>2.932498725105231</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.24910976071862</v>
+        <v>39.37526094594495</v>
       </c>
       <c r="G5">
-        <v>24.11549099876211</v>
+        <v>2.10811930120855</v>
       </c>
       <c r="H5">
-        <v>25.56065401364966</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.097362048505786</v>
       </c>
       <c r="K5">
-        <v>14.87290144097983</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>25.64440004205522</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.89245764428033</v>
+      </c>
+      <c r="N5">
+        <v>14.36804065762931</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.67203003830891</v>
+        <v>22.05797894628022</v>
       </c>
       <c r="C6">
-        <v>7.842011777308734</v>
+        <v>15.97053896833362</v>
       </c>
       <c r="D6">
-        <v>3.923169811392066</v>
+        <v>2.930853240418871</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.16642187409975</v>
+        <v>39.3036153306279</v>
       </c>
       <c r="G6">
-        <v>24.04649234630513</v>
+        <v>2.108677817819773</v>
       </c>
       <c r="H6">
-        <v>25.5031684812839</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.098148222042664</v>
       </c>
       <c r="K6">
-        <v>14.82096908053959</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>25.54229897325748</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.855169892434</v>
+      </c>
+      <c r="N6">
+        <v>14.37705089109426</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.1581356031962</v>
+        <v>22.57097377764383</v>
       </c>
       <c r="C7">
-        <v>7.975582728682899</v>
+        <v>16.39037069660302</v>
       </c>
       <c r="D7">
-        <v>3.906051597035289</v>
+        <v>2.942331883989947</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.73945072020897</v>
+        <v>39.80220445206623</v>
       </c>
       <c r="G7">
-        <v>24.52412018540797</v>
+        <v>2.104816477819622</v>
       </c>
       <c r="H7">
-        <v>25.90221521310042</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.09293563466178</v>
       </c>
       <c r="K7">
-        <v>15.17835240492579</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>26.24597305650089</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16.11349256669096</v>
+      </c>
+      <c r="N7">
+        <v>14.31492760965153</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.19956900109521</v>
+        <v>24.8064420252268</v>
       </c>
       <c r="C8">
-        <v>8.537979742572428</v>
+        <v>18.15901638121665</v>
       </c>
       <c r="D8">
-        <v>3.833854976236081</v>
+        <v>2.994583786985052</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.24327434550846</v>
+        <v>42.03248152531332</v>
       </c>
       <c r="G8">
-        <v>26.59824866825985</v>
+        <v>2.088130967811331</v>
       </c>
       <c r="H8">
-        <v>27.66260106355428</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.076159808014155</v>
       </c>
       <c r="K8">
-        <v>16.68011486292599</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>29.23184416855524</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.23959938561718</v>
+      </c>
+      <c r="N8">
+        <v>14.05137500030069</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.85067539093069</v>
+        <v>29.09433195691483</v>
       </c>
       <c r="C9">
-        <v>9.541582362723517</v>
+        <v>21.33847817740716</v>
       </c>
       <c r="D9">
-        <v>3.707413409239992</v>
+        <v>3.104865327148672</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.05507835982286</v>
+        <v>46.50384394406397</v>
       </c>
       <c r="G9">
-        <v>30.54168988691563</v>
+        <v>2.056391124590134</v>
       </c>
       <c r="H9">
-        <v>31.10742978368937</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.06754715293174</v>
       </c>
       <c r="K9">
-        <v>19.36639567456645</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>34.71375018206552</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.38804183754836</v>
+      </c>
+      <c r="N9">
+        <v>13.57568951448634</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.3412908104596</v>
+        <v>32.02668824327976</v>
       </c>
       <c r="C10">
-        <v>10.21726774040779</v>
+        <v>23.51404262953142</v>
       </c>
       <c r="D10">
-        <v>3.627883167049009</v>
+        <v>3.193047809795373</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.53816160522847</v>
+        <v>49.849991170946</v>
       </c>
       <c r="G10">
-        <v>33.37347030225684</v>
+        <v>2.033345957106493</v>
       </c>
       <c r="H10">
-        <v>33.64008997546104</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.078052413098806</v>
       </c>
       <c r="K10">
-        <v>21.19648077692839</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>38.57925677106253</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21.2170383599698</v>
+      </c>
+      <c r="N10">
+        <v>13.25528841883618</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.43888323980129</v>
+        <v>33.31856661019759</v>
       </c>
       <c r="C11">
-        <v>10.51110498310174</v>
+        <v>24.47327758700922</v>
       </c>
       <c r="D11">
-        <v>3.59591612028182</v>
+        <v>3.235382131312565</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.11693491999355</v>
+        <v>51.38870279176684</v>
       </c>
       <c r="G11">
-        <v>34.65284062980481</v>
+        <v>2.022835545900669</v>
       </c>
       <c r="H11">
-        <v>34.79686710205739</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.087003059855951</v>
       </c>
       <c r="K11">
-        <v>22.00182812150863</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>40.32155107619333</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22.07279508497656</v>
+      </c>
+      <c r="N11">
+        <v>13.11707314700811</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85005798246372</v>
+        <v>33.80224850294098</v>
       </c>
       <c r="C12">
-        <v>10.6204118564696</v>
+        <v>24.8325737458959</v>
       </c>
       <c r="D12">
-        <v>3.584566227151921</v>
+        <v>3.251800384192389</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.71471705429179</v>
+        <v>51.97424135906559</v>
       </c>
       <c r="G12">
-        <v>35.13672297364724</v>
+        <v>2.018843083619613</v>
       </c>
       <c r="H12">
-        <v>35.23616120806803</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.091041956802785</v>
       </c>
       <c r="K12">
-        <v>22.30329395825542</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>40.98104005156698</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>22.39294290994774</v>
+      </c>
+      <c r="N12">
+        <v>13.06595423372793</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.76169107897636</v>
+        <v>33.69831529676069</v>
       </c>
       <c r="C13">
-        <v>10.59695829456791</v>
+        <v>24.75536068772735</v>
       </c>
       <c r="D13">
-        <v>3.586974211975379</v>
+        <v>3.248245979192714</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.58596187014036</v>
+        <v>51.84799795994856</v>
       </c>
       <c r="G13">
-        <v>35.0325231028205</v>
+        <v>2.019703633691338</v>
       </c>
       <c r="H13">
-        <v>35.14148431515077</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.090142361602991</v>
       </c>
       <c r="K13">
-        <v>22.23851630745107</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>40.8389818468855</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22.32416083252673</v>
+      </c>
+      <c r="N13">
+        <v>13.0769068202316</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.47279614848769</v>
+        <v>33.35846679129047</v>
       </c>
       <c r="C14">
-        <v>10.52013718043515</v>
+        <v>24.50291343182004</v>
       </c>
       <c r="D14">
-        <v>3.5949662170497</v>
+        <v>3.23672467627578</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.16611081074836</v>
+        <v>51.43681454314893</v>
       </c>
       <c r="G14">
-        <v>34.69265698936274</v>
+        <v>2.022507385791898</v>
       </c>
       <c r="H14">
-        <v>34.83297899845487</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.087322018233741</v>
       </c>
       <c r="K14">
-        <v>22.02669746710931</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>40.37579977276002</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22.09920990652926</v>
+      </c>
+      <c r="N14">
+        <v>13.11284221305301</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.29527973307579</v>
+        <v>33.14959747573964</v>
       </c>
       <c r="C15">
-        <v>10.47282581532689</v>
+        <v>24.34778246873507</v>
       </c>
       <c r="D15">
-        <v>3.599965048429619</v>
+        <v>3.2297202009872</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.9089585265356</v>
+        <v>51.18534337329822</v>
       </c>
       <c r="G15">
-        <v>34.48442671357842</v>
+        <v>2.024222874278145</v>
       </c>
       <c r="H15">
-        <v>34.64419392002401</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.08568064149862</v>
       </c>
       <c r="K15">
-        <v>21.89650967820262</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>40.09211989915316</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.96092361221063</v>
+      </c>
+      <c r="N15">
+        <v>13.13501717616226</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.26889940701482</v>
+        <v>31.94145727331694</v>
       </c>
       <c r="C16">
-        <v>10.19779111348212</v>
+        <v>23.45077714261927</v>
       </c>
       <c r="D16">
-        <v>3.630068951506764</v>
+        <v>3.190331357204778</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.43492877588068</v>
+        <v>49.74980231383897</v>
       </c>
       <c r="G16">
-        <v>33.28973619791165</v>
+        <v>2.034031596157617</v>
       </c>
       <c r="H16">
-        <v>33.56463020839747</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.077555507683016</v>
       </c>
       <c r="K16">
-        <v>21.14333559659331</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>38.46523264129678</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21.16054478242533</v>
+      </c>
+      <c r="N16">
+        <v>13.26448373383283</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.6305935150909</v>
+        <v>31.18987370864174</v>
       </c>
       <c r="C17">
-        <v>10.02558903683264</v>
+        <v>22.89298237385548</v>
       </c>
       <c r="D17">
-        <v>3.649710070756737</v>
+        <v>3.166780651436269</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.5296537487796</v>
+        <v>48.87366176430624</v>
       </c>
       <c r="G17">
-        <v>32.55499032012042</v>
+        <v>2.040036361177616</v>
       </c>
       <c r="H17">
-        <v>32.90389209066595</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.073672806828265</v>
       </c>
       <c r="K17">
-        <v>20.67459370114407</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>37.46436379311483</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.66217335023336</v>
+      </c>
+      <c r="N17">
+        <v>13.34592523796333</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.26008076651038</v>
+        <v>30.75358692085661</v>
       </c>
       <c r="C18">
-        <v>9.925270026638309</v>
+        <v>22.56925864328323</v>
       </c>
       <c r="D18">
-        <v>3.661392563938009</v>
+        <v>3.153439101796343</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.00836714367085</v>
+        <v>48.37124473470718</v>
       </c>
       <c r="G18">
-        <v>32.13150090582523</v>
+        <v>2.04348817898989</v>
       </c>
       <c r="H18">
-        <v>32.52424525306564</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.071828930806896</v>
       </c>
       <c r="K18">
-        <v>20.40240029478346</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>36.88702475845053</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.37270372911289</v>
+      </c>
+      <c r="N18">
+        <v>13.39346781526923</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.13403435783464</v>
+        <v>30.60516689929877</v>
       </c>
       <c r="C19">
-        <v>9.891085539704337</v>
+        <v>22.45914212099146</v>
       </c>
       <c r="D19">
-        <v>3.665410312635224</v>
+        <v>3.148955079387565</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.83174734041097</v>
+        <v>48.20138374951256</v>
       </c>
       <c r="G19">
-        <v>31.98794575072163</v>
+        <v>2.044656805571536</v>
       </c>
       <c r="H19">
-        <v>32.39575648514587</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.07127008858452</v>
       </c>
       <c r="K19">
-        <v>20.30978513172669</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>36.69120688609283</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.27419987718903</v>
+      </c>
+      <c r="N19">
+        <v>13.40968140406062</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.69888749066038</v>
+        <v>31.27029110033324</v>
       </c>
       <c r="C20">
-        <v>10.04405208960532</v>
+        <v>22.95265729079169</v>
       </c>
       <c r="D20">
-        <v>3.647578387765888</v>
+        <v>3.169266078028378</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.62607892770702</v>
+        <v>48.96676866084419</v>
       </c>
       <c r="G20">
-        <v>32.63329242193365</v>
+        <v>2.039397404331875</v>
       </c>
       <c r="H20">
-        <v>32.97418467673226</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.07404549171187</v>
       </c>
       <c r="K20">
-        <v>20.72475697661145</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>37.57106710574902</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.71551520630322</v>
+      </c>
+      <c r="N20">
+        <v>13.33718235691694</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.55776697170836</v>
+        <v>33.45843382262596</v>
       </c>
       <c r="C21">
-        <v>10.54275483730854</v>
+        <v>24.57716657684657</v>
       </c>
       <c r="D21">
-        <v>3.592596876357036</v>
+        <v>3.240097648990643</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.28942561996195</v>
+        <v>51.55750653359662</v>
       </c>
       <c r="G21">
-        <v>34.79249329908212</v>
+        <v>2.021684267033641</v>
       </c>
       <c r="H21">
-        <v>34.92355493527016</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.088132366754218</v>
       </c>
       <c r="K21">
-        <v>22.08900519849942</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>40.51183642754754</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22.16538636995836</v>
+      </c>
+      <c r="N21">
+        <v>13.10225275480484</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.74704907328746</v>
+        <v>34.85662493929687</v>
       </c>
       <c r="C22">
-        <v>10.85723134962595</v>
+        <v>25.61613730565317</v>
       </c>
       <c r="D22">
-        <v>3.561167124853436</v>
+        <v>3.288688271823266</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.11092299744645</v>
+        <v>53.26776236403118</v>
       </c>
       <c r="G22">
-        <v>36.21078076612223</v>
+        <v>2.010030433316174</v>
       </c>
       <c r="H22">
-        <v>36.20528853206746</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.101152651369858</v>
       </c>
       <c r="K22">
-        <v>22.96046074952088</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>42.43350734520052</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23.09038834101156</v>
+      </c>
+      <c r="N22">
+        <v>12.95591275539269</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.11440620281003</v>
+        <v>34.11310317417649</v>
       </c>
       <c r="C23">
-        <v>10.6904447083129</v>
+        <v>25.06353715610231</v>
       </c>
       <c r="D23">
-        <v>3.577468989786655</v>
+        <v>3.262518298220257</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.11563117592501</v>
+        <v>52.35319086010043</v>
       </c>
       <c r="G23">
-        <v>35.44910517742083</v>
+        <v>2.016260564071646</v>
       </c>
       <c r="H23">
-        <v>35.52024762843796</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.093836355343996</v>
       </c>
       <c r="K23">
-        <v>22.49703690488934</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>41.4070889881074</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>22.59862826632539</v>
+      </c>
+      <c r="N23">
+        <v>13.03330458493051</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.66802286336945</v>
+        <v>31.23394749110757</v>
       </c>
       <c r="C24">
-        <v>10.03570904678176</v>
+        <v>22.9256877615903</v>
       </c>
       <c r="D24">
-        <v>3.648540915907032</v>
+        <v>3.168141804665066</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.58248774886446</v>
+        <v>48.92467105544129</v>
       </c>
       <c r="G24">
-        <v>32.59789543608064</v>
+        <v>2.039686277350742</v>
       </c>
       <c r="H24">
-        <v>32.94240475306649</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.073875794943827</v>
       </c>
       <c r="K24">
-        <v>20.70208662235248</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>37.52283268502425</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.69140856591192</v>
+      </c>
+      <c r="N24">
+        <v>13.34113277834133</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.89849211452467</v>
+        <v>27.97414782148267</v>
       </c>
       <c r="C25">
-        <v>9.280848347477049</v>
+        <v>20.50780892907273</v>
       </c>
       <c r="D25">
-        <v>3.739634064088713</v>
+        <v>3.073970344536532</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.76371694804428</v>
+        <v>45.28407108910256</v>
       </c>
       <c r="G25">
-        <v>29.48763713151677</v>
+        <v>2.064903465519557</v>
       </c>
       <c r="H25">
-        <v>30.17612013663974</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.067080565694483</v>
       </c>
       <c r="K25">
-        <v>18.66605745090553</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>33.26466793741603</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>18.81380991311535</v>
+      </c>
+      <c r="N25">
+        <v>13.69961371237626</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.4256487877524</v>
+        <v>19.57143473336141</v>
       </c>
       <c r="C2">
-        <v>18.61819066928179</v>
+        <v>13.2865080219024</v>
       </c>
       <c r="D2">
-        <v>3.009194241749279</v>
+        <v>2.824804297011531</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.64360491436558</v>
+        <v>24.04256412582679</v>
       </c>
       <c r="G2">
-        <v>2.083686955962088</v>
+        <v>34.3225785126788</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.06280594332577</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.073189660595397</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.54092737167936</v>
+        <v>30.11104686298226</v>
       </c>
       <c r="N2">
-        <v>13.98263216646115</v>
+        <v>10.6378769171966</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.64542140069824</v>
+        <v>18.26948483568489</v>
       </c>
       <c r="C3">
-        <v>17.26418085642554</v>
+        <v>12.51975122967577</v>
       </c>
       <c r="D3">
-        <v>2.967354824684797</v>
+        <v>2.83819811887567</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.87870325609984</v>
+        <v>22.80910114200379</v>
       </c>
       <c r="G3">
-        <v>2.096658055910341</v>
+        <v>32.29704119142042</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.807618264977357</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.083594678694637</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.66260810824185</v>
+        <v>27.79134639561582</v>
       </c>
       <c r="N3">
-        <v>14.18502974126651</v>
+        <v>10.93305136965822</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.57693264553287</v>
+        <v>17.42514362192647</v>
       </c>
       <c r="C4">
-        <v>16.39523678878187</v>
+        <v>12.02487781345379</v>
       </c>
       <c r="D4">
-        <v>2.942466988370509</v>
+        <v>2.846298730069049</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.80805581410729</v>
+        <v>22.04675733695539</v>
       </c>
       <c r="G4">
-        <v>2.104771501301345</v>
+        <v>31.03453273628981</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.658645314741285</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.092877965318463</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.11650838270648</v>
+        <v>26.31749593243972</v>
       </c>
       <c r="N4">
-        <v>14.31420636858175</v>
+        <v>11.11575244793782</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.13235056248431</v>
+        <v>17.06969906977828</v>
       </c>
       <c r="C5">
-        <v>16.03151906130823</v>
+        <v>11.81721035096601</v>
       </c>
       <c r="D5">
-        <v>2.932498725105231</v>
+        <v>2.849581245171513</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.37526094594495</v>
+        <v>21.73517836955419</v>
       </c>
       <c r="G5">
-        <v>2.10811930120855</v>
+        <v>30.51577481130585</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.599869105265633</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.097362048505786</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.89245764428033</v>
+        <v>25.70354656334565</v>
       </c>
       <c r="N5">
-        <v>14.36804065762931</v>
+        <v>11.1906711786769</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.05797894628022</v>
+        <v>17.00998926646405</v>
       </c>
       <c r="C6">
-        <v>15.97053896833362</v>
+        <v>11.78236668839331</v>
       </c>
       <c r="D6">
-        <v>2.930853240418871</v>
+        <v>2.85012552128271</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.3036153306279</v>
+        <v>21.68339679571696</v>
       </c>
       <c r="G6">
-        <v>2.108677817819773</v>
+        <v>30.42939338164617</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.590225741037333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.098148222042664</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.855169892434</v>
+        <v>25.60077116931112</v>
       </c>
       <c r="N6">
-        <v>14.37705089109426</v>
+        <v>11.20314223243671</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.57097377764383</v>
+        <v>17.42039608954196</v>
       </c>
       <c r="C7">
-        <v>16.39037069660302</v>
+        <v>12.02210135863137</v>
       </c>
       <c r="D7">
-        <v>2.942331883989947</v>
+        <v>2.846343058901283</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.80220445206623</v>
+        <v>22.04255848918526</v>
       </c>
       <c r="G7">
-        <v>2.104816477819622</v>
+        <v>31.02755318745268</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.657844829732589</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.09293563466178</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.11349256669096</v>
+        <v>26.30927110797272</v>
       </c>
       <c r="N7">
-        <v>14.31492760965153</v>
+        <v>11.11676081663593</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.8064420252268</v>
+        <v>19.13180611091315</v>
       </c>
       <c r="C8">
-        <v>18.15901638121665</v>
+        <v>13.02715500991383</v>
       </c>
       <c r="D8">
-        <v>2.994583786985052</v>
+        <v>2.829456036340955</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.03248152531332</v>
+        <v>23.61848135610228</v>
       </c>
       <c r="G8">
-        <v>2.088130967811331</v>
+        <v>33.62830875811233</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.973211633508344</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.076159808014155</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.23959938561718</v>
+        <v>29.32092469805419</v>
       </c>
       <c r="N8">
-        <v>14.05137500030069</v>
+        <v>10.73941266818676</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.09433195691483</v>
+        <v>22.13472738258221</v>
       </c>
       <c r="C9">
-        <v>21.33847817740716</v>
+        <v>14.80545011758742</v>
       </c>
       <c r="D9">
-        <v>3.104865327148672</v>
+        <v>2.794705327126681</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.50384394406397</v>
+        <v>26.65854920618801</v>
       </c>
       <c r="G9">
-        <v>2.056391124590134</v>
+        <v>38.56662671877187</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.65330474265198</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.06754715293174</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.38804183754836</v>
+        <v>34.88151425274616</v>
       </c>
       <c r="N9">
-        <v>13.57568951448634</v>
+        <v>10.00585024242864</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.02668824327976</v>
+        <v>24.13079480967789</v>
       </c>
       <c r="C10">
-        <v>23.51404262953142</v>
+        <v>15.99327081911442</v>
       </c>
       <c r="D10">
-        <v>3.193047809795373</v>
+        <v>2.767047211810849</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.849991170946</v>
+        <v>28.85344773082735</v>
       </c>
       <c r="G10">
-        <v>2.033345957106493</v>
+        <v>42.12862575622589</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.19170124556755</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.078052413098806</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.2170383599698</v>
+        <v>38.84027630012251</v>
       </c>
       <c r="N10">
-        <v>13.25528841883618</v>
+        <v>9.46207864497099</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.31856661019759</v>
+        <v>24.9943947877432</v>
       </c>
       <c r="C11">
-        <v>24.47327758700922</v>
+        <v>16.50770899369254</v>
       </c>
       <c r="D11">
-        <v>3.235382131312565</v>
+        <v>2.753659104629295</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.38870279176684</v>
+        <v>29.87280987791855</v>
       </c>
       <c r="G11">
-        <v>2.022835545900669</v>
+        <v>43.76287386045848</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.44553933727405</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.087003059855951</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.07279508497656</v>
+        <v>40.63960947893121</v>
       </c>
       <c r="N11">
-        <v>13.11707314700811</v>
+        <v>9.21111550440672</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.80224850294098</v>
+        <v>25.31512615492235</v>
       </c>
       <c r="C12">
-        <v>24.8325737458959</v>
+        <v>16.69876977153384</v>
       </c>
       <c r="D12">
-        <v>3.251800384192389</v>
+        <v>2.748433801650322</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.97424135906559</v>
+        <v>30.28966810605208</v>
       </c>
       <c r="G12">
-        <v>2.018843083619613</v>
+        <v>44.37822769775594</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.54301178094826</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.091041956802785</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.39294290994774</v>
+        <v>41.32373606762209</v>
       </c>
       <c r="N12">
-        <v>13.06595423372793</v>
+        <v>9.115286868363572</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.69831529676069</v>
+        <v>25.24632944562203</v>
       </c>
       <c r="C13">
-        <v>24.75536068772735</v>
+        <v>16.65778845130213</v>
       </c>
       <c r="D13">
-        <v>3.248245979192714</v>
+        <v>2.74956684765389</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.84799795994856</v>
+        <v>30.20002329972323</v>
       </c>
       <c r="G13">
-        <v>2.019703633691338</v>
+        <v>44.24584628949437</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.5219579347314</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.090142361602991</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.32416083252673</v>
+        <v>41.17621693588119</v>
       </c>
       <c r="N13">
-        <v>13.0769068202316</v>
+        <v>9.135965818842765</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.35846679129047</v>
+        <v>25.02090719224802</v>
       </c>
       <c r="C14">
-        <v>24.50291343182004</v>
+        <v>16.52350290443345</v>
       </c>
       <c r="D14">
-        <v>3.23672467627578</v>
+        <v>2.753232604041198</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.43681454314893</v>
+        <v>29.90716559866898</v>
       </c>
       <c r="G14">
-        <v>2.022507385791898</v>
+        <v>43.81356614470977</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.45353091734199</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.087322018233741</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.09920990652926</v>
+        <v>40.6958173258484</v>
       </c>
       <c r="N14">
-        <v>13.11284221305301</v>
+        <v>9.203249393639048</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.14959747573964</v>
+        <v>24.88201244945073</v>
       </c>
       <c r="C15">
-        <v>24.34778246873507</v>
+        <v>16.44076053940511</v>
       </c>
       <c r="D15">
-        <v>3.2297202009872</v>
+        <v>2.755456347688571</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.18534337329822</v>
+        <v>29.72738543877199</v>
       </c>
       <c r="G15">
-        <v>2.024222874278145</v>
+        <v>43.54834351616475</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.41179562978311</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.08568064149862</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.96092361221063</v>
+        <v>40.40202192190193</v>
       </c>
       <c r="N15">
-        <v>13.13501717616226</v>
+        <v>9.244349621764004</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.94145727331694</v>
+        <v>24.073470585738</v>
       </c>
       <c r="C16">
-        <v>23.45077714261927</v>
+        <v>15.95912821542758</v>
       </c>
       <c r="D16">
-        <v>3.190331357204778</v>
+        <v>2.767902814050326</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.74980231383897</v>
+        <v>28.7885722429881</v>
       </c>
       <c r="G16">
-        <v>2.034031596157617</v>
+        <v>42.02130408279313</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.17529687326166</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.077555507683016</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.16054478242533</v>
+        <v>38.72288966556331</v>
       </c>
       <c r="N16">
-        <v>13.26448373383283</v>
+        <v>9.478385169456422</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.18987370864174</v>
+        <v>23.56614505715442</v>
       </c>
       <c r="C17">
-        <v>22.89298237385548</v>
+        <v>15.65701490314667</v>
       </c>
       <c r="D17">
-        <v>3.166780651436269</v>
+        <v>2.775307163683834</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.87366176430624</v>
+        <v>28.21912160924868</v>
       </c>
       <c r="G17">
-        <v>2.040036361177616</v>
+        <v>41.0777206853091</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.03253584656179</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.073672806828265</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.66217335023336</v>
+        <v>37.69426134818536</v>
       </c>
       <c r="N17">
-        <v>13.34592523796333</v>
+        <v>9.620860642434103</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.75358692085661</v>
+        <v>23.27015810966743</v>
       </c>
       <c r="C18">
-        <v>22.56925864328323</v>
+        <v>15.48081023639375</v>
       </c>
       <c r="D18">
-        <v>3.153439101796343</v>
+        <v>2.77949298153906</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.37124473470718</v>
+        <v>27.89081020147832</v>
       </c>
       <c r="G18">
-        <v>2.04348817898989</v>
+        <v>40.54827337619026</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.95125752657502</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.071828930806896</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.37270372911289</v>
+        <v>37.10225754606617</v>
       </c>
       <c r="N18">
-        <v>13.39346781526923</v>
+        <v>9.702490005683053</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.60516689929877</v>
+        <v>23.16922011101766</v>
       </c>
       <c r="C19">
-        <v>22.45914212099146</v>
+        <v>15.42073227949516</v>
       </c>
       <c r="D19">
-        <v>3.148955079387565</v>
+        <v>2.780898717601991</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.20138374951256</v>
+        <v>27.77951308064652</v>
       </c>
       <c r="G19">
-        <v>2.044656805571536</v>
+        <v>40.36965030198952</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.92387974454839</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.07127008858452</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.27419987718903</v>
+        <v>36.90167568185547</v>
       </c>
       <c r="N19">
-        <v>13.40968140406062</v>
+        <v>9.730080901305259</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.27029110033324</v>
+        <v>23.6205833618671</v>
       </c>
       <c r="C20">
-        <v>22.95265729079169</v>
+        <v>15.6894277280946</v>
       </c>
       <c r="D20">
-        <v>3.169266078028378</v>
+        <v>2.774526759503866</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.96676866084419</v>
+        <v>28.2798204216335</v>
       </c>
       <c r="G20">
-        <v>2.039397404331875</v>
+        <v>41.17843670824131</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.04764628688213</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.07404549171187</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.71551520630322</v>
+        <v>37.80377945859662</v>
       </c>
       <c r="N20">
-        <v>13.33718235691694</v>
+        <v>9.605728660889744</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.45843382262596</v>
+        <v>25.08728929419322</v>
       </c>
       <c r="C21">
-        <v>24.57716657684657</v>
+        <v>16.56304769919378</v>
       </c>
       <c r="D21">
-        <v>3.240097648990643</v>
+        <v>2.752160481035952</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.55750653359662</v>
+        <v>29.99326691151634</v>
       </c>
       <c r="G21">
-        <v>2.021684267033641</v>
+        <v>43.94062756935969</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.47359228312867</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.088132366754218</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.16538636995836</v>
+        <v>40.83681911181819</v>
       </c>
       <c r="N21">
-        <v>13.10225275480484</v>
+        <v>9.183510708437097</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.85662493929687</v>
+        <v>26.0092137318733</v>
       </c>
       <c r="C22">
-        <v>25.61613730565317</v>
+        <v>17.11215615813353</v>
       </c>
       <c r="D22">
-        <v>3.288688271823266</v>
+        <v>2.736607743071644</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.26776236403118</v>
+        <v>31.2011843850353</v>
       </c>
       <c r="G22">
-        <v>2.010030433316174</v>
+        <v>45.72584892865421</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.75989335676426</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.101152651369858</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.09038834101156</v>
+        <v>42.83730030921751</v>
       </c>
       <c r="N22">
-        <v>12.95591275539269</v>
+        <v>8.902748982440558</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.11310317417649</v>
+        <v>25.52048919473071</v>
       </c>
       <c r="C23">
-        <v>25.06353715610231</v>
+        <v>16.82109619424135</v>
       </c>
       <c r="D23">
-        <v>3.262518298220257</v>
+        <v>2.745010742730233</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.35319086010043</v>
+        <v>30.55801293172589</v>
       </c>
       <c r="G23">
-        <v>2.016260564071646</v>
+        <v>44.77466554082712</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.60633379173502</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.093836355343996</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.59862826632539</v>
+        <v>41.76669099739133</v>
       </c>
       <c r="N23">
-        <v>13.03330458493051</v>
+        <v>9.053149925716093</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.23394749110757</v>
+        <v>23.59598526328133</v>
       </c>
       <c r="C24">
-        <v>22.9256877615903</v>
+        <v>15.67478172443558</v>
       </c>
       <c r="D24">
-        <v>3.168141804665066</v>
+        <v>2.77487979870672</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.92467105544129</v>
+        <v>28.25238138499231</v>
       </c>
       <c r="G24">
-        <v>2.039686277350742</v>
+        <v>41.13291199853252</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.04081237927639</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.073875794943827</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.69140856591192</v>
+        <v>37.75426849976859</v>
       </c>
       <c r="N24">
-        <v>13.34113277834133</v>
+        <v>9.612570687274081</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.97414782148267</v>
+        <v>21.35965436140604</v>
       </c>
       <c r="C25">
-        <v>20.50780892907273</v>
+        <v>14.34515682255121</v>
       </c>
       <c r="D25">
-        <v>3.073970344536532</v>
+        <v>2.804384030336396</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>45.28407108910256</v>
+        <v>25.842670959123</v>
       </c>
       <c r="G25">
-        <v>2.064903465519557</v>
+        <v>37.24913407947992</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.46263370644181</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.067080565694483</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.81380991311535</v>
+        <v>33.40663465336171</v>
       </c>
       <c r="N25">
-        <v>13.69961371237626</v>
+        <v>10.20441778475871</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.57143473336141</v>
+        <v>11.77945557619245</v>
       </c>
       <c r="C2">
-        <v>13.2865080219024</v>
+        <v>8.448039326725169</v>
       </c>
       <c r="D2">
-        <v>2.824804297011531</v>
+        <v>3.815589065003689</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.04256412582679</v>
+        <v>23.36371001202611</v>
       </c>
       <c r="G2">
-        <v>34.3225785126788</v>
+        <v>28.21800362004991</v>
       </c>
       <c r="H2">
-        <v>10.06280594332577</v>
+        <v>13.39025038264764</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.11104686298226</v>
+        <v>19.96768287763172</v>
       </c>
       <c r="N2">
-        <v>10.6378769171966</v>
+        <v>16.75665004841941</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.26948483568489</v>
+        <v>11.22266774547254</v>
       </c>
       <c r="C3">
-        <v>12.51975122967577</v>
+        <v>8.061491973761555</v>
       </c>
       <c r="D3">
-        <v>2.83819811887567</v>
+        <v>3.814541279050083</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.80910114200379</v>
+        <v>23.13851727061821</v>
       </c>
       <c r="G3">
-        <v>32.29704119142042</v>
+        <v>27.70867087502799</v>
       </c>
       <c r="H3">
-        <v>9.807618264977357</v>
+        <v>13.39006529465224</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.79134639561582</v>
+        <v>19.36130788815408</v>
       </c>
       <c r="N3">
-        <v>10.93305136965822</v>
+        <v>16.83158776219149</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.42514362192647</v>
+        <v>10.86851893454608</v>
       </c>
       <c r="C4">
-        <v>12.02487781345379</v>
+        <v>7.812651877082939</v>
       </c>
       <c r="D4">
-        <v>2.846298730069049</v>
+        <v>3.81395198873013</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.04675733695539</v>
+        <v>23.00773878226437</v>
       </c>
       <c r="G4">
-        <v>31.03453273628981</v>
+        <v>27.40365566137115</v>
       </c>
       <c r="H4">
-        <v>9.658645314741285</v>
+        <v>13.39340728874673</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.31749593243972</v>
+        <v>18.98741647451425</v>
       </c>
       <c r="N4">
-        <v>11.11575244793782</v>
+        <v>16.87951303653139</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.06969906977828</v>
+        <v>10.72132129988333</v>
       </c>
       <c r="C5">
-        <v>11.81721035096601</v>
+        <v>7.708428585206815</v>
       </c>
       <c r="D5">
-        <v>2.849581245171513</v>
+        <v>3.813725845479449</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.73517836955419</v>
+        <v>22.95638623636183</v>
       </c>
       <c r="G5">
-        <v>30.51577481130585</v>
+        <v>27.28149279994176</v>
       </c>
       <c r="H5">
-        <v>9.599869105265633</v>
+        <v>13.39563655250821</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.70354656334565</v>
+        <v>18.83491330522345</v>
       </c>
       <c r="N5">
-        <v>11.1906711786769</v>
+        <v>16.89952606719894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.00998926646405</v>
+        <v>10.6967120563859</v>
       </c>
       <c r="C6">
-        <v>11.78236668839331</v>
+        <v>7.690954488838917</v>
       </c>
       <c r="D6">
-        <v>2.85012552128271</v>
+        <v>3.813689151888355</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.68339679571696</v>
+        <v>22.94797797903507</v>
       </c>
       <c r="G6">
-        <v>30.42939338164617</v>
+        <v>27.26134214409948</v>
       </c>
       <c r="H6">
-        <v>9.590225741037333</v>
+        <v>13.39605905066613</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.60077116931112</v>
+        <v>18.80958959966734</v>
       </c>
       <c r="N6">
-        <v>11.20314223243671</v>
+        <v>16.90287845173217</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.42039608954196</v>
+        <v>10.86654513497004</v>
       </c>
       <c r="C7">
-        <v>12.02210135863137</v>
+        <v>7.811257594436909</v>
       </c>
       <c r="D7">
-        <v>2.846343058901283</v>
+        <v>3.81394888166892</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.04255848918526</v>
+        <v>23.0070382937778</v>
       </c>
       <c r="G7">
-        <v>31.02755318745268</v>
+        <v>27.40199924097889</v>
       </c>
       <c r="H7">
-        <v>9.657844829732589</v>
+        <v>13.39343384386727</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.30927110797272</v>
+        <v>18.98535997925212</v>
       </c>
       <c r="N7">
-        <v>11.11676081663593</v>
+        <v>16.87978098057416</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.13180611091315</v>
+        <v>11.59013936420098</v>
       </c>
       <c r="C8">
-        <v>13.02715500991383</v>
+        <v>8.317184105627801</v>
       </c>
       <c r="D8">
-        <v>2.829456036340955</v>
+        <v>3.815216810601189</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.61848135610228</v>
+        <v>23.28454453467343</v>
       </c>
       <c r="G8">
-        <v>33.62830875811233</v>
+        <v>28.04090081356974</v>
       </c>
       <c r="H8">
-        <v>9.973211633508344</v>
+        <v>13.38946855759285</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.32092469805419</v>
+        <v>19.75908139884973</v>
       </c>
       <c r="N8">
-        <v>10.73941266818676</v>
+        <v>16.78209269639257</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.13472738258221</v>
+        <v>12.90398988759709</v>
       </c>
       <c r="C9">
-        <v>14.80545011758742</v>
+        <v>9.215461987778681</v>
       </c>
       <c r="D9">
-        <v>2.794705327126681</v>
+        <v>3.818114633519829</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.65854920618801</v>
+        <v>23.88544095913127</v>
       </c>
       <c r="G9">
-        <v>38.56662671877187</v>
+        <v>29.34639981194924</v>
       </c>
       <c r="H9">
-        <v>10.65330474265198</v>
+        <v>13.40915941371824</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.88151425274616</v>
+        <v>21.25330487260901</v>
       </c>
       <c r="N9">
-        <v>10.00585024242864</v>
+        <v>16.60561352137895</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.13079480967789</v>
+        <v>13.79670394931977</v>
       </c>
       <c r="C10">
-        <v>15.99327081911442</v>
+        <v>9.815416515032453</v>
       </c>
       <c r="D10">
-        <v>2.767047211810849</v>
+        <v>3.820471416924872</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.85344773082735</v>
+        <v>24.35757032594583</v>
       </c>
       <c r="G10">
-        <v>42.12862575622589</v>
+        <v>30.3260639070269</v>
       </c>
       <c r="H10">
-        <v>11.19170124556755</v>
+        <v>13.44040311200601</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.84027630012251</v>
+        <v>22.32408867440732</v>
       </c>
       <c r="N10">
-        <v>9.46207864497099</v>
+        <v>16.48501836148873</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.9943947877432</v>
+        <v>14.18571409667303</v>
       </c>
       <c r="C11">
-        <v>16.50770899369254</v>
+        <v>10.07489328196733</v>
       </c>
       <c r="D11">
-        <v>2.753659104629295</v>
+        <v>3.821588213881191</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.87280987791855</v>
+        <v>24.57811574809981</v>
       </c>
       <c r="G11">
-        <v>43.76287386045848</v>
+        <v>30.77379276703911</v>
       </c>
       <c r="H11">
-        <v>11.44553933727405</v>
+        <v>13.45825453163015</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.63960947893121</v>
+        <v>22.80295393286577</v>
       </c>
       <c r="N11">
-        <v>9.21111550440672</v>
+        <v>16.43209579314993</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.31512615492235</v>
+        <v>14.33047620562147</v>
       </c>
       <c r="C12">
-        <v>16.69876977153384</v>
+        <v>10.17118967094352</v>
       </c>
       <c r="D12">
-        <v>2.748433801650322</v>
+        <v>3.822017140994091</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.28966810605208</v>
+        <v>24.6623828340843</v>
       </c>
       <c r="G12">
-        <v>44.37822769775594</v>
+        <v>30.94344168648179</v>
       </c>
       <c r="H12">
-        <v>11.54301178094826</v>
+        <v>13.46553612472891</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.32373606762209</v>
+        <v>22.98292760698891</v>
       </c>
       <c r="N12">
-        <v>9.115286868363572</v>
+        <v>16.41233170676241</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.24632944562203</v>
+        <v>14.29941367233822</v>
       </c>
       <c r="C13">
-        <v>16.65778845130213</v>
+        <v>10.1505381672215</v>
       </c>
       <c r="D13">
-        <v>2.74956684765389</v>
+        <v>3.821924502515494</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.20002329972323</v>
+        <v>24.64420225610421</v>
       </c>
       <c r="G13">
-        <v>44.24584628949437</v>
+        <v>30.90690316222837</v>
       </c>
       <c r="H13">
-        <v>11.5219579347314</v>
+        <v>13.46394473428356</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.17621693588119</v>
+        <v>22.94423027579246</v>
       </c>
       <c r="N13">
-        <v>9.135965818842765</v>
+        <v>16.41657598841712</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.02090719224802</v>
+        <v>14.19767528153463</v>
       </c>
       <c r="C14">
-        <v>16.52350290443345</v>
+        <v>10.08285510485694</v>
       </c>
       <c r="D14">
-        <v>2.753232604041198</v>
+        <v>3.821623383626715</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.90716559866898</v>
+        <v>24.58503384817114</v>
       </c>
       <c r="G14">
-        <v>43.81356614470977</v>
+        <v>30.78774889527506</v>
       </c>
       <c r="H14">
-        <v>11.45353091734199</v>
+        <v>13.45884314919654</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.6958173258484</v>
+        <v>22.8177887286801</v>
       </c>
       <c r="N14">
-        <v>9.203249393639048</v>
+        <v>16.43046425883176</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.88201244945073</v>
+        <v>14.13502339746767</v>
       </c>
       <c r="C15">
-        <v>16.44076053940511</v>
+        <v>10.04114103873089</v>
       </c>
       <c r="D15">
-        <v>2.755456347688571</v>
+        <v>3.821439711668869</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.72738543877199</v>
+        <v>24.54888698367246</v>
       </c>
       <c r="G15">
-        <v>43.54834351616475</v>
+        <v>30.71477132396862</v>
       </c>
       <c r="H15">
-        <v>11.41179562978311</v>
+        <v>13.45578615818494</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.40202192190193</v>
+        <v>22.74015727072195</v>
       </c>
       <c r="N15">
-        <v>9.244349621764004</v>
+        <v>16.43900718098843</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.073470585738</v>
+        <v>13.77092926984868</v>
       </c>
       <c r="C16">
-        <v>15.95912821542758</v>
+        <v>9.798185984772886</v>
       </c>
       <c r="D16">
-        <v>2.767902814050326</v>
+        <v>3.820399296058534</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.7885722429881</v>
+        <v>24.34326660604317</v>
       </c>
       <c r="G16">
-        <v>42.02130408279313</v>
+        <v>30.29682871896214</v>
       </c>
       <c r="H16">
-        <v>11.17529687326166</v>
+        <v>13.43930957587527</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.72288966556331</v>
+        <v>22.29261233252015</v>
       </c>
       <c r="N16">
-        <v>9.478385169456422</v>
+        <v>16.48851578082684</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.56614505715442</v>
+        <v>13.54312302661816</v>
       </c>
       <c r="C17">
-        <v>15.65701490314667</v>
+        <v>9.645675192433483</v>
       </c>
       <c r="D17">
-        <v>2.775307163683834</v>
+        <v>3.819772190041273</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.21912160924868</v>
+        <v>24.21854781603058</v>
       </c>
       <c r="G17">
-        <v>41.0777206853091</v>
+        <v>30.04082512339415</v>
       </c>
       <c r="H17">
-        <v>11.03253584656179</v>
+        <v>13.43013271412575</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.69426134818536</v>
+        <v>22.01581577007063</v>
       </c>
       <c r="N17">
-        <v>9.620860642434103</v>
+        <v>16.51938236121812</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.27015810966743</v>
+        <v>13.4104906179698</v>
       </c>
       <c r="C18">
-        <v>15.48081023639375</v>
+        <v>9.556690765719297</v>
       </c>
       <c r="D18">
-        <v>2.77949298153906</v>
+        <v>3.819415725153021</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.89081020147832</v>
+        <v>24.14736089687513</v>
       </c>
       <c r="G18">
-        <v>40.54827337619026</v>
+        <v>29.89378514195791</v>
       </c>
       <c r="H18">
-        <v>10.95125752657502</v>
+        <v>13.42519703163224</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.10225754606617</v>
+        <v>21.85584360972734</v>
       </c>
       <c r="N18">
-        <v>9.702490005683053</v>
+        <v>16.53731841798621</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.16922011101766</v>
+        <v>13.36531102950858</v>
       </c>
       <c r="C19">
-        <v>15.42073227949516</v>
+        <v>9.52634598883745</v>
       </c>
       <c r="D19">
-        <v>2.780898717601991</v>
+        <v>3.819295771151027</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.77951308064652</v>
+        <v>24.12335472970187</v>
       </c>
       <c r="G19">
-        <v>40.36965030198952</v>
+        <v>29.84404144807529</v>
       </c>
       <c r="H19">
-        <v>10.92387974454839</v>
+        <v>13.42358477487289</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.90167568185547</v>
+        <v>21.80155390343813</v>
       </c>
       <c r="N19">
-        <v>9.730080901305259</v>
+        <v>16.54342264850015</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.6205833618671</v>
+        <v>13.56754012914529</v>
       </c>
       <c r="C20">
-        <v>15.6894277280946</v>
+        <v>9.662041295258646</v>
       </c>
       <c r="D20">
-        <v>2.774526759503866</v>
+        <v>3.819838511716179</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.2798204216335</v>
+        <v>24.2317681910016</v>
       </c>
       <c r="G20">
-        <v>41.17843670824131</v>
+        <v>30.06805720275566</v>
       </c>
       <c r="H20">
-        <v>11.04764628688213</v>
+        <v>13.4310741577557</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.80377945859662</v>
+        <v>22.04536186630591</v>
       </c>
       <c r="N20">
-        <v>9.605728660889744</v>
+        <v>16.51607769589187</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.08728929419322</v>
+        <v>14.22762809591328</v>
       </c>
       <c r="C21">
-        <v>16.56304769919378</v>
+        <v>10.10278870335082</v>
       </c>
       <c r="D21">
-        <v>2.752160481035952</v>
+        <v>3.821711669363812</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.99326691151634</v>
+        <v>24.60239328458185</v>
       </c>
       <c r="G21">
-        <v>43.94062756935969</v>
+        <v>30.82274609090677</v>
       </c>
       <c r="H21">
-        <v>11.47359228312867</v>
+        <v>13.46032746649769</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.83681911181819</v>
+        <v>22.85496597126717</v>
       </c>
       <c r="N21">
-        <v>9.183510708437097</v>
+        <v>16.4263774475602</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.0092137318733</v>
+        <v>14.64415301777312</v>
       </c>
       <c r="C22">
-        <v>17.11215615813353</v>
+        <v>10.37939811628173</v>
       </c>
       <c r="D22">
-        <v>2.736607743071644</v>
+        <v>3.822970791756109</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.2011843850353</v>
+        <v>24.84896044950883</v>
       </c>
       <c r="G22">
-        <v>45.72584892865421</v>
+        <v>31.31649870696874</v>
       </c>
       <c r="H22">
-        <v>11.75989335676426</v>
+        <v>13.48248560514175</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.83730030921751</v>
+        <v>23.37607923777468</v>
       </c>
       <c r="N22">
-        <v>8.902748982440558</v>
+        <v>16.36936413186766</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.52048919473071</v>
+        <v>14.42323330996877</v>
       </c>
       <c r="C23">
-        <v>16.82109619424135</v>
+        <v>10.2328216274233</v>
       </c>
       <c r="D23">
-        <v>2.745010742730233</v>
+        <v>3.822295713534005</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.55801293172589</v>
+        <v>24.71699179407779</v>
       </c>
       <c r="G23">
-        <v>44.77466554082712</v>
+        <v>31.05298838998042</v>
       </c>
       <c r="H23">
-        <v>11.60633379173502</v>
+        <v>13.47038195656284</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.76669099739133</v>
+        <v>23.09873820347483</v>
       </c>
       <c r="N23">
-        <v>9.053149925716093</v>
+        <v>16.39964645643616</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.59598526328133</v>
+        <v>13.55650633173389</v>
       </c>
       <c r="C24">
-        <v>15.67478172443558</v>
+        <v>9.654646239445238</v>
       </c>
       <c r="D24">
-        <v>2.77487979870672</v>
+        <v>3.819808514989129</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.25238138499231</v>
+        <v>24.22578964762885</v>
       </c>
       <c r="G24">
-        <v>41.13291199853252</v>
+        <v>30.05574512908271</v>
       </c>
       <c r="H24">
-        <v>11.04081237927639</v>
+        <v>13.43064747127758</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.75426849976859</v>
+        <v>22.03200667313279</v>
       </c>
       <c r="N24">
-        <v>9.612570687274081</v>
+        <v>16.51757114173287</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.35965436140604</v>
+        <v>12.5607791574418</v>
       </c>
       <c r="C25">
-        <v>14.34515682255121</v>
+        <v>8.982823386623915</v>
       </c>
       <c r="D25">
-        <v>2.804384030336396</v>
+        <v>3.817289047851994</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.842670959123</v>
+        <v>23.71720376221491</v>
       </c>
       <c r="G25">
-        <v>37.24913407947992</v>
+        <v>28.98879543914606</v>
       </c>
       <c r="H25">
-        <v>10.46263370644181</v>
+        <v>13.40088635440607</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.40663465336171</v>
+        <v>20.85295072235431</v>
       </c>
       <c r="N25">
-        <v>10.20441778475871</v>
+        <v>16.6517544119857</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.77945557619245</v>
+        <v>19.57143473336148</v>
       </c>
       <c r="C2">
-        <v>8.448039326725169</v>
+        <v>13.28650802190242</v>
       </c>
       <c r="D2">
-        <v>3.815589065003689</v>
+        <v>2.824804297011583</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.36371001202611</v>
+        <v>24.04256412582676</v>
       </c>
       <c r="G2">
-        <v>28.21800362004991</v>
+        <v>34.32257851267882</v>
       </c>
       <c r="H2">
-        <v>13.39025038264764</v>
+        <v>10.06280594332572</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.96768287763172</v>
+        <v>30.1110468629823</v>
       </c>
       <c r="N2">
-        <v>16.75665004841941</v>
+        <v>10.63787691719647</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.22266774547254</v>
+        <v>18.26948483568493</v>
       </c>
       <c r="C3">
-        <v>8.061491973761555</v>
+        <v>12.51975122967569</v>
       </c>
       <c r="D3">
-        <v>3.814541279050083</v>
+        <v>2.838198118875745</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.13851727061821</v>
+        <v>22.80910114200376</v>
       </c>
       <c r="G3">
-        <v>27.70867087502799</v>
+        <v>32.29704119142043</v>
       </c>
       <c r="H3">
-        <v>13.39006529465224</v>
+        <v>9.807618264977357</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.36130788815408</v>
+        <v>27.79134639561577</v>
       </c>
       <c r="N3">
-        <v>16.83158776219149</v>
+        <v>10.93305136965822</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86851893454608</v>
+        <v>17.42514362192653</v>
       </c>
       <c r="C4">
-        <v>7.812651877082939</v>
+        <v>12.02487781345389</v>
       </c>
       <c r="D4">
-        <v>3.81395198873013</v>
+        <v>2.846298730069112</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.00773878226437</v>
+        <v>22.04675733695528</v>
       </c>
       <c r="G4">
-        <v>27.40365566137115</v>
+        <v>31.03453273628974</v>
       </c>
       <c r="H4">
-        <v>13.39340728874673</v>
+        <v>9.658645314741253</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.98741647451425</v>
+        <v>26.31749593243977</v>
       </c>
       <c r="N4">
-        <v>16.87951303653139</v>
+        <v>11.11575244793772</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.72132129988333</v>
+        <v>17.06969906977831</v>
       </c>
       <c r="C5">
-        <v>7.708428585206815</v>
+        <v>11.81721035096604</v>
       </c>
       <c r="D5">
-        <v>3.813725845479449</v>
+        <v>2.84958124517134</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.95638623636183</v>
+        <v>21.7351783695541</v>
       </c>
       <c r="G5">
-        <v>27.28149279994176</v>
+        <v>30.51577481130568</v>
       </c>
       <c r="H5">
-        <v>13.39563655250821</v>
+        <v>9.599869105265563</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.83491330522345</v>
+        <v>25.7035465633456</v>
       </c>
       <c r="N5">
-        <v>16.89952606719894</v>
+        <v>11.19067117867683</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.6967120563859</v>
+        <v>17.00998926646415</v>
       </c>
       <c r="C6">
-        <v>7.690954488838917</v>
+        <v>11.78236668839332</v>
       </c>
       <c r="D6">
-        <v>3.813689151888355</v>
+        <v>2.85012552128265</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.94797797903507</v>
+        <v>21.68339679571694</v>
       </c>
       <c r="G6">
-        <v>27.26134214409948</v>
+        <v>30.42939338164614</v>
       </c>
       <c r="H6">
-        <v>13.39605905066613</v>
+        <v>9.590225741037333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.80958959966734</v>
+        <v>25.60077116931114</v>
       </c>
       <c r="N6">
-        <v>16.90287845173217</v>
+        <v>11.20314223243671</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.86654513497004</v>
+        <v>17.42039608954197</v>
       </c>
       <c r="C7">
-        <v>7.811257594436909</v>
+        <v>12.02210135863143</v>
       </c>
       <c r="D7">
-        <v>3.81394888166892</v>
+        <v>2.846343058901208</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.0070382937778</v>
+        <v>22.04255848918525</v>
       </c>
       <c r="G7">
-        <v>27.40199924097889</v>
+        <v>31.02755318745265</v>
       </c>
       <c r="H7">
-        <v>13.39343384386727</v>
+        <v>9.657844829732571</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.98535997925212</v>
+        <v>26.30927110797276</v>
       </c>
       <c r="N7">
-        <v>16.87978098057416</v>
+        <v>11.11676081663596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.59013936420098</v>
+        <v>19.13180611091323</v>
       </c>
       <c r="C8">
-        <v>8.317184105627801</v>
+        <v>13.02715500991382</v>
       </c>
       <c r="D8">
-        <v>3.815216810601189</v>
+        <v>2.829456036340966</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.28454453467343</v>
+        <v>23.61848135610227</v>
       </c>
       <c r="G8">
-        <v>28.04090081356974</v>
+        <v>33.62830875811236</v>
       </c>
       <c r="H8">
-        <v>13.38946855759285</v>
+        <v>9.973211633508292</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.75908139884973</v>
+        <v>29.32092469805415</v>
       </c>
       <c r="N8">
-        <v>16.78209269639257</v>
+        <v>10.73941266818666</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.90398988759709</v>
+        <v>22.13472738258228</v>
       </c>
       <c r="C9">
-        <v>9.215461987778681</v>
+        <v>14.80545011758758</v>
       </c>
       <c r="D9">
-        <v>3.818114633519829</v>
+        <v>2.794705327126677</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.88544095913127</v>
+        <v>26.65854920618801</v>
       </c>
       <c r="G9">
-        <v>29.34639981194924</v>
+        <v>38.56662671877197</v>
       </c>
       <c r="H9">
-        <v>13.40915941371824</v>
+        <v>10.65330474265193</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.25330487260901</v>
+        <v>34.88151425274629</v>
       </c>
       <c r="N9">
-        <v>16.60561352137895</v>
+        <v>10.00585024242851</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.79670394931977</v>
+        <v>24.13079480967782</v>
       </c>
       <c r="C10">
-        <v>9.815416515032453</v>
+        <v>15.99327081911451</v>
       </c>
       <c r="D10">
-        <v>3.820471416924872</v>
+        <v>2.767047211811016</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.35757032594583</v>
+        <v>28.85344773082736</v>
       </c>
       <c r="G10">
-        <v>30.3260639070269</v>
+        <v>42.12862575622584</v>
       </c>
       <c r="H10">
-        <v>13.44040311200601</v>
+        <v>11.19170124556757</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.32408867440732</v>
+        <v>38.84027630012238</v>
       </c>
       <c r="N10">
-        <v>16.48501836148873</v>
+        <v>9.462078644971024</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.18571409667303</v>
+        <v>24.99439478774316</v>
       </c>
       <c r="C11">
-        <v>10.07489328196733</v>
+        <v>16.5077089936926</v>
       </c>
       <c r="D11">
-        <v>3.821588213881191</v>
+        <v>2.753659104629233</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.57811574809981</v>
+        <v>29.87280987791848</v>
       </c>
       <c r="G11">
-        <v>30.77379276703911</v>
+        <v>43.76287386045844</v>
       </c>
       <c r="H11">
-        <v>13.45825453163015</v>
+        <v>11.44553933727403</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.80295393286577</v>
+        <v>40.63960947893131</v>
       </c>
       <c r="N11">
-        <v>16.43209579314993</v>
+        <v>9.211115504406719</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.33047620562147</v>
+        <v>25.31512615492226</v>
       </c>
       <c r="C12">
-        <v>10.17118967094352</v>
+        <v>16.69876977153384</v>
       </c>
       <c r="D12">
-        <v>3.822017140994091</v>
+        <v>2.74843380165033</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.6623828340843</v>
+        <v>30.28966810605204</v>
       </c>
       <c r="G12">
-        <v>30.94344168648179</v>
+        <v>44.37822769775588</v>
       </c>
       <c r="H12">
-        <v>13.46553612472891</v>
+        <v>11.54301178094827</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.98292760698891</v>
+        <v>41.32373606762196</v>
       </c>
       <c r="N12">
-        <v>16.41233170676241</v>
+        <v>9.11528686836364</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.29941367233822</v>
+        <v>25.24632944562213</v>
       </c>
       <c r="C13">
-        <v>10.1505381672215</v>
+        <v>16.65778845130222</v>
       </c>
       <c r="D13">
-        <v>3.821924502515494</v>
+        <v>2.749566847653881</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.64420225610421</v>
+        <v>30.20002329972335</v>
       </c>
       <c r="G13">
-        <v>30.90690316222837</v>
+        <v>44.24584628949461</v>
       </c>
       <c r="H13">
-        <v>13.46394473428356</v>
+        <v>11.52195793473139</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.94423027579246</v>
+        <v>41.1762169358812</v>
       </c>
       <c r="N13">
-        <v>16.41657598841712</v>
+        <v>9.135965818842704</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.19767528153463</v>
+        <v>25.02090719224806</v>
       </c>
       <c r="C14">
-        <v>10.08285510485694</v>
+        <v>16.52350290443353</v>
       </c>
       <c r="D14">
-        <v>3.821623383626715</v>
+        <v>2.753232604041265</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.58503384817114</v>
+        <v>29.90716559866906</v>
       </c>
       <c r="G14">
-        <v>30.78774889527506</v>
+        <v>43.81356614470987</v>
       </c>
       <c r="H14">
-        <v>13.45884314919654</v>
+        <v>11.45353091734197</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.8177887286801</v>
+        <v>40.69581732584832</v>
       </c>
       <c r="N14">
-        <v>16.43046425883176</v>
+        <v>9.20324939363895</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.13502339746767</v>
+        <v>24.8820124494507</v>
       </c>
       <c r="C15">
-        <v>10.04114103873089</v>
+        <v>16.44076053940505</v>
       </c>
       <c r="D15">
-        <v>3.821439711668869</v>
+        <v>2.755456347688558</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.54888698367246</v>
+        <v>29.72738543877193</v>
       </c>
       <c r="G15">
-        <v>30.71477132396862</v>
+        <v>43.54834351616464</v>
       </c>
       <c r="H15">
-        <v>13.45578615818494</v>
+        <v>11.41179562978312</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.74015727072195</v>
+        <v>40.40202192190189</v>
       </c>
       <c r="N15">
-        <v>16.43900718098843</v>
+        <v>9.244349621764131</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.77092926984868</v>
+        <v>24.07347058573796</v>
       </c>
       <c r="C16">
-        <v>9.798185984772886</v>
+        <v>15.95912821542762</v>
       </c>
       <c r="D16">
-        <v>3.820399296058534</v>
+        <v>2.767902814050459</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.34326660604317</v>
+        <v>28.78857224298812</v>
       </c>
       <c r="G16">
-        <v>30.29682871896214</v>
+        <v>42.02130408279315</v>
       </c>
       <c r="H16">
-        <v>13.43930957587527</v>
+        <v>11.17529687326163</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.29261233252015</v>
+        <v>38.72288966556339</v>
       </c>
       <c r="N16">
-        <v>16.48851578082684</v>
+        <v>9.478385169456354</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.54312302661816</v>
+        <v>23.56614505715449</v>
       </c>
       <c r="C17">
-        <v>9.645675192433483</v>
+        <v>15.65701490314663</v>
       </c>
       <c r="D17">
-        <v>3.819772190041273</v>
+        <v>2.775307163683913</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.21854781603058</v>
+        <v>28.21912160924872</v>
       </c>
       <c r="G17">
-        <v>30.04082512339415</v>
+        <v>41.07772068530919</v>
       </c>
       <c r="H17">
-        <v>13.43013271412575</v>
+        <v>11.03253584656181</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.01581577007063</v>
+        <v>37.69426134818536</v>
       </c>
       <c r="N17">
-        <v>16.51938236121812</v>
+        <v>9.620860642434067</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.4104906179698</v>
+        <v>23.27015810966736</v>
       </c>
       <c r="C18">
-        <v>9.556690765719297</v>
+        <v>15.48081023639354</v>
       </c>
       <c r="D18">
-        <v>3.819415725153021</v>
+        <v>2.77949298153912</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.14736089687513</v>
+        <v>27.89081020147826</v>
       </c>
       <c r="G18">
-        <v>29.89378514195791</v>
+        <v>40.54827337619011</v>
       </c>
       <c r="H18">
-        <v>13.42519703163224</v>
+        <v>10.95125752657505</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.85584360972734</v>
+        <v>37.10225754606628</v>
       </c>
       <c r="N18">
-        <v>16.53731841798621</v>
+        <v>9.702490005683115</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.36531102950858</v>
+        <v>23.16922011101766</v>
       </c>
       <c r="C19">
-        <v>9.52634598883745</v>
+        <v>15.42073227949516</v>
       </c>
       <c r="D19">
-        <v>3.819295771151027</v>
+        <v>2.780898717602154</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.12335472970187</v>
+        <v>27.77951308064651</v>
       </c>
       <c r="G19">
-        <v>29.84404144807529</v>
+        <v>40.36965030198952</v>
       </c>
       <c r="H19">
-        <v>13.42358477487289</v>
+        <v>10.92387974454839</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.80155390343813</v>
+        <v>36.90167568185554</v>
       </c>
       <c r="N19">
-        <v>16.54342264850015</v>
+        <v>9.730080901305259</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.56754012914529</v>
+        <v>23.62058336186702</v>
       </c>
       <c r="C20">
-        <v>9.662041295258646</v>
+        <v>15.68942772809477</v>
       </c>
       <c r="D20">
-        <v>3.819838511716179</v>
+        <v>2.774526759503857</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.2317681910016</v>
+        <v>28.27982042163348</v>
       </c>
       <c r="G20">
-        <v>30.06805720275566</v>
+        <v>41.17843670824124</v>
       </c>
       <c r="H20">
-        <v>13.4310741577557</v>
+        <v>11.04764628688215</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.04536186630591</v>
+        <v>37.80377945859647</v>
       </c>
       <c r="N20">
-        <v>16.51607769589187</v>
+        <v>9.605728660889843</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.22762809591328</v>
+        <v>25.08728929419323</v>
       </c>
       <c r="C21">
-        <v>10.10278870335082</v>
+        <v>16.56304769919371</v>
       </c>
       <c r="D21">
-        <v>3.821711669363812</v>
+        <v>2.752160481036009</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.60239328458185</v>
+        <v>29.99326691151627</v>
       </c>
       <c r="G21">
-        <v>30.82274609090677</v>
+        <v>43.94062756935956</v>
       </c>
       <c r="H21">
-        <v>13.46032746649769</v>
+        <v>11.47359228312864</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.85496597126717</v>
+        <v>40.83681911181819</v>
       </c>
       <c r="N21">
-        <v>16.4263774475602</v>
+        <v>9.183510708437128</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.64415301777312</v>
+        <v>26.00921373187342</v>
       </c>
       <c r="C22">
-        <v>10.37939811628173</v>
+        <v>17.11215615813354</v>
       </c>
       <c r="D22">
-        <v>3.822970791756109</v>
+        <v>2.736607743071652</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.84896044950883</v>
+        <v>31.20118438503534</v>
       </c>
       <c r="G22">
-        <v>31.31649870696874</v>
+        <v>45.72584892865427</v>
       </c>
       <c r="H22">
-        <v>13.48248560514175</v>
+        <v>11.75989335676421</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.37607923777468</v>
+        <v>42.83730030921761</v>
       </c>
       <c r="N22">
-        <v>16.36936413186766</v>
+        <v>8.902748982440487</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.42323330996877</v>
+        <v>25.52048919473062</v>
       </c>
       <c r="C23">
-        <v>10.2328216274233</v>
+        <v>16.82109619424133</v>
       </c>
       <c r="D23">
-        <v>3.822295713534005</v>
+        <v>2.745010742730224</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.71699179407779</v>
+        <v>30.55801293172588</v>
       </c>
       <c r="G23">
-        <v>31.05298838998042</v>
+        <v>44.77466554082712</v>
       </c>
       <c r="H23">
-        <v>13.47038195656284</v>
+        <v>11.60633379173507</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.09873820347483</v>
+        <v>41.76669099739134</v>
       </c>
       <c r="N23">
-        <v>16.39964645643616</v>
+        <v>9.053149925716166</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.55650633173389</v>
+        <v>23.5959852632813</v>
       </c>
       <c r="C24">
-        <v>9.654646239445238</v>
+        <v>15.67478172443545</v>
       </c>
       <c r="D24">
-        <v>3.819808514989129</v>
+        <v>2.77487979870685</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.22578964762885</v>
+        <v>28.25238138499236</v>
       </c>
       <c r="G24">
-        <v>30.05574512908271</v>
+        <v>41.13291199853256</v>
       </c>
       <c r="H24">
-        <v>13.43064747127758</v>
+        <v>11.04081237927637</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.03200667313279</v>
+        <v>37.75426849976866</v>
       </c>
       <c r="N24">
-        <v>16.51757114173287</v>
+        <v>9.612570687273987</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.5607791574418</v>
+        <v>21.35965436140595</v>
       </c>
       <c r="C25">
-        <v>8.982823386623915</v>
+        <v>14.34515682255113</v>
       </c>
       <c r="D25">
-        <v>3.817289047851994</v>
+        <v>2.804384030336342</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.71720376221491</v>
+        <v>25.84267095912304</v>
       </c>
       <c r="G25">
-        <v>28.98879543914606</v>
+        <v>37.24913407947993</v>
       </c>
       <c r="H25">
-        <v>13.40088635440607</v>
+        <v>10.46263370644184</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.85295072235431</v>
+        <v>33.40663465336181</v>
       </c>
       <c r="N25">
-        <v>16.6517544119857</v>
+        <v>10.20441778475868</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.57143473336148</v>
+        <v>19.45996371345489</v>
       </c>
       <c r="C2">
-        <v>13.28650802190242</v>
+        <v>15.7503277034513</v>
       </c>
       <c r="D2">
-        <v>2.824804297011583</v>
+        <v>6.562170519483766</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.04256412582676</v>
+        <v>28.06509917029134</v>
       </c>
       <c r="G2">
-        <v>34.32257851267882</v>
+        <v>34.5885496181573</v>
       </c>
       <c r="H2">
-        <v>10.06280594332572</v>
+        <v>1.807270745688188</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.784721787911963</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.16634467663252</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.95382273432219</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.365785675735081</v>
       </c>
       <c r="M2">
-        <v>30.1110468629823</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>10.63787691719647</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.22693957998194</v>
+      </c>
+      <c r="P2">
+        <v>12.3265285432685</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.26948483568493</v>
+        <v>18.15662904872573</v>
       </c>
       <c r="C3">
-        <v>12.51975122967569</v>
+        <v>14.70244060572289</v>
       </c>
       <c r="D3">
-        <v>2.838198118875745</v>
+        <v>6.337092440818533</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.80910114200376</v>
+        <v>27.14370857394829</v>
       </c>
       <c r="G3">
-        <v>32.29704119142043</v>
+        <v>33.1740384434507</v>
       </c>
       <c r="H3">
-        <v>9.807618264977357</v>
+        <v>2.06238238781626</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.596319069846639</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.99319356012782</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.82166385285709</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.199956946251199</v>
       </c>
       <c r="M3">
-        <v>27.79134639561577</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>10.93305136965822</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.36899504651252</v>
+      </c>
+      <c r="P3">
+        <v>12.47352854894962</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.42514362192653</v>
+        <v>17.30516951711207</v>
       </c>
       <c r="C4">
-        <v>12.02487781345389</v>
+        <v>14.02511452389607</v>
       </c>
       <c r="D4">
-        <v>2.846298730069112</v>
+        <v>6.195582327235362</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.04675733695528</v>
+        <v>26.57043460552933</v>
       </c>
       <c r="G4">
-        <v>31.03453273628974</v>
+        <v>32.28776520978182</v>
       </c>
       <c r="H4">
-        <v>9.658645314741253</v>
+        <v>2.224505699882156</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.477461059536746</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.88913717375534</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.74442260311341</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.095060357374076</v>
       </c>
       <c r="M4">
-        <v>26.31749593243977</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>11.11575244793772</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.81864304107034</v>
+      </c>
+      <c r="P4">
+        <v>12.56529349406424</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.06969906977831</v>
+        <v>16.93863863240004</v>
       </c>
       <c r="C5">
-        <v>11.81721035096604</v>
+        <v>13.74843801037743</v>
       </c>
       <c r="D5">
-        <v>2.84958124517134</v>
+        <v>6.139164729718432</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.7351783695541</v>
+        <v>26.32501738348362</v>
       </c>
       <c r="G5">
-        <v>30.51577481130568</v>
+        <v>31.9033769211178</v>
       </c>
       <c r="H5">
-        <v>9.599869105265563</v>
+        <v>2.292251652560153</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.521125320576915</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.84373526605822</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.70623659830881</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.051332851322174</v>
       </c>
       <c r="M5">
-        <v>25.7035465633456</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>11.19067117867683</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.58850689609308</v>
+      </c>
+      <c r="P5">
+        <v>12.60295201362821</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.00998926646415</v>
+        <v>16.86891626153317</v>
       </c>
       <c r="C6">
-        <v>11.78236668839332</v>
+        <v>13.71164411051825</v>
       </c>
       <c r="D6">
-        <v>2.85012552128265</v>
+        <v>6.132245383362685</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.68339679571694</v>
+        <v>26.27170954448856</v>
       </c>
       <c r="G6">
-        <v>30.42939338164614</v>
+        <v>31.81579974408917</v>
       </c>
       <c r="H6">
-        <v>9.590225741037333</v>
+        <v>2.303923127155719</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.534646587802034</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.83184805263205</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.69057785796589</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.043763873527545</v>
       </c>
       <c r="M6">
-        <v>25.60077116931114</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>11.20314223243671</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.54981932719071</v>
+      </c>
+      <c r="P6">
+        <v>12.609082742988</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.42039608954197</v>
+        <v>17.27875674906191</v>
       </c>
       <c r="C7">
-        <v>12.02210135863143</v>
+        <v>14.04716278537148</v>
       </c>
       <c r="D7">
-        <v>2.846343058901208</v>
+        <v>6.201556650911208</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.04255848918525</v>
+        <v>26.53346065777278</v>
       </c>
       <c r="G7">
-        <v>31.02755318745265</v>
+        <v>32.21924042096123</v>
       </c>
       <c r="H7">
-        <v>9.657844829732571</v>
+        <v>2.226321427730921</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.479128705418399</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.8766121866947</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.71836715967268</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.093770585606942</v>
       </c>
       <c r="M7">
-        <v>26.30927110797276</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>11.11676081663596</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.81520422212245</v>
+      </c>
+      <c r="P7">
+        <v>12.5654715756227</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.13180611091323</v>
+        <v>18.99489470722765</v>
       </c>
       <c r="C8">
-        <v>13.02715500991382</v>
+        <v>15.4273779525967</v>
       </c>
       <c r="D8">
-        <v>2.829456036340966</v>
+        <v>6.49382328059893</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.61848135610227</v>
+        <v>27.70635367704038</v>
       </c>
       <c r="G8">
-        <v>33.62830875811236</v>
+        <v>34.02502768621882</v>
       </c>
       <c r="H8">
-        <v>9.973211633508292</v>
+        <v>1.895258714068054</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.722661739305773</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.09073934626006</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.87402312860635</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.308373814821004</v>
       </c>
       <c r="M8">
-        <v>29.32092469805415</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>10.73941266818666</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.93563738963909</v>
+      </c>
+      <c r="P8">
+        <v>12.3767962062081</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.13472738258228</v>
+        <v>21.9913729096007</v>
       </c>
       <c r="C9">
-        <v>14.80545011758758</v>
+        <v>17.82597615930514</v>
       </c>
       <c r="D9">
-        <v>2.794705327126677</v>
+        <v>7.027638666240597</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.65854920618801</v>
+        <v>29.99241843847975</v>
       </c>
       <c r="G9">
-        <v>38.56662671877197</v>
+        <v>37.51337464682533</v>
       </c>
       <c r="H9">
-        <v>10.65330474265193</v>
+        <v>1.827646328341046</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.173479336115327</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.54853154748822</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.25634009148185</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.705721203587341</v>
       </c>
       <c r="M9">
-        <v>34.88151425274629</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>10.00585024242851</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.94055454547369</v>
+      </c>
+      <c r="P9">
+        <v>12.01826975538125</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.13079480967782</v>
+        <v>23.91517573389129</v>
       </c>
       <c r="C10">
-        <v>15.99327081911451</v>
+        <v>19.38515456825072</v>
       </c>
       <c r="D10">
-        <v>2.767047211811016</v>
+        <v>7.317753390783552</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.85344773082736</v>
+        <v>31.38094241372752</v>
       </c>
       <c r="G10">
-        <v>42.12862575622584</v>
+        <v>39.68231293358441</v>
       </c>
       <c r="H10">
-        <v>11.19170124556757</v>
+        <v>2.224833835198869</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.485847107751373</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.83738209024851</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.46607710492368</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.888849070468225</v>
       </c>
       <c r="M10">
-        <v>38.84027630012238</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>9.462078644971024</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.12771427719674</v>
+      </c>
+      <c r="P10">
+        <v>11.76575169866965</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.99439478774316</v>
+        <v>24.47583956956759</v>
       </c>
       <c r="C11">
-        <v>16.5077089936926</v>
+        <v>19.637652394465</v>
       </c>
       <c r="D11">
-        <v>2.753659104629233</v>
+        <v>6.738865940651206</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.87280987791848</v>
+        <v>30.05479327219432</v>
       </c>
       <c r="G11">
-        <v>43.76287386045844</v>
+        <v>38.40004049790289</v>
       </c>
       <c r="H11">
-        <v>11.44553933727403</v>
+        <v>3.037594315155463</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.578117019494067</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.50719294284853</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.83581412497818</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.27602316207918</v>
       </c>
       <c r="M11">
-        <v>40.63960947893131</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>9.211115504406719</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.247727558156</v>
+      </c>
+      <c r="P11">
+        <v>11.71243405098479</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.31512615492226</v>
+        <v>24.58351453524579</v>
       </c>
       <c r="C12">
-        <v>16.69876977153384</v>
+        <v>19.50135010659971</v>
       </c>
       <c r="D12">
-        <v>2.74843380165033</v>
+        <v>6.217228483802872</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.28966810605204</v>
+        <v>28.66493214724559</v>
       </c>
       <c r="G12">
-        <v>44.37822769775588</v>
+        <v>36.91834994848652</v>
       </c>
       <c r="H12">
-        <v>11.54301178094827</v>
+        <v>4.247196541849728</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.591497719689617</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.17707907495431</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.2902145453397</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.897570583898474</v>
       </c>
       <c r="M12">
-        <v>41.32373606762196</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>9.11528686836364</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.24540502999507</v>
+      </c>
+      <c r="P12">
+        <v>11.74220820957822</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.24632944562213</v>
+        <v>24.3285141109633</v>
       </c>
       <c r="C13">
-        <v>16.65778845130222</v>
+        <v>19.08292445762271</v>
       </c>
       <c r="D13">
-        <v>2.749566847653881</v>
+        <v>5.718790347165916</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.20002329972335</v>
+        <v>27.06816271036099</v>
       </c>
       <c r="G13">
-        <v>44.24584628949461</v>
+        <v>35.06842642485135</v>
       </c>
       <c r="H13">
-        <v>11.52195793473139</v>
+        <v>5.539351851025158</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.547710817837586</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.80567167564917</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.73564190822846</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.697244557061996</v>
       </c>
       <c r="M13">
-        <v>41.1762169358812</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>9.135965818842704</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.06042876370455</v>
+      </c>
+      <c r="P13">
+        <v>11.83299449056559</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.02090719224806</v>
+        <v>23.97773066532093</v>
       </c>
       <c r="C14">
-        <v>16.52350290443353</v>
+        <v>18.66253230968125</v>
       </c>
       <c r="D14">
-        <v>2.753232604041265</v>
+        <v>5.393938930983312</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.90716559866906</v>
+        <v>25.8370240166526</v>
       </c>
       <c r="G14">
-        <v>43.81356614470987</v>
+        <v>33.57048781462063</v>
       </c>
       <c r="H14">
-        <v>11.45353091734197</v>
+        <v>6.472805221751934</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.49223401675914</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.5230335900939</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.3383145975393</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.672658423811171</v>
       </c>
       <c r="M14">
-        <v>40.69581732584832</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>9.20324939363895</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.13371384736856</v>
+      </c>
+      <c r="P14">
+        <v>11.9251081893266</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.8820124494507</v>
+        <v>23.8066436240302</v>
       </c>
       <c r="C15">
-        <v>16.44076053940505</v>
+        <v>18.50560264896704</v>
       </c>
       <c r="D15">
-        <v>2.755456347688558</v>
+        <v>5.316201318962188</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.72738543877193</v>
+        <v>25.48327595278123</v>
       </c>
       <c r="G15">
-        <v>43.54834351616464</v>
+        <v>33.1053305149915</v>
       </c>
       <c r="H15">
-        <v>11.41179562978312</v>
+        <v>6.684795075627265</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.467068812628521</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.44230967886363</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.23251053050675</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.678124747326835</v>
       </c>
       <c r="M15">
-        <v>40.40202192190189</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>9.244349621764131</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.86743494183641</v>
+      </c>
+      <c r="P15">
+        <v>11.95819855981613</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.07347058573796</v>
+        <v>23.04426398356814</v>
       </c>
       <c r="C16">
-        <v>15.95912821542762</v>
+        <v>17.93089378904111</v>
       </c>
       <c r="D16">
-        <v>2.767902814050459</v>
+        <v>5.276984002037938</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.78857224298812</v>
+        <v>25.12868818405787</v>
       </c>
       <c r="G16">
-        <v>42.02130408279315</v>
+        <v>32.41260385969997</v>
       </c>
       <c r="H16">
-        <v>11.17529687326163</v>
+        <v>6.450735513289346</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.344939218582093</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.37782857782418</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.23392040816447</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.627083935269301</v>
       </c>
       <c r="M16">
-        <v>38.72288966556339</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>9.478385169456354</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.5353425780712</v>
+      </c>
+      <c r="P16">
+        <v>12.03497708563024</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.56614505715449</v>
+        <v>22.64139847210391</v>
       </c>
       <c r="C17">
-        <v>15.65701490314663</v>
+        <v>17.7172667936708</v>
       </c>
       <c r="D17">
-        <v>2.775307163683913</v>
+        <v>5.416067833522348</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.21912160924872</v>
+        <v>25.52918893660537</v>
       </c>
       <c r="G17">
-        <v>41.07772068530919</v>
+        <v>32.70732769237416</v>
       </c>
       <c r="H17">
-        <v>11.03253584656181</v>
+        <v>5.702822706456855</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.280529529215559</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.48111395952253</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.4465236315566</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.581181393096701</v>
       </c>
       <c r="M17">
-        <v>37.69426134818536</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>9.620860642434067</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.7921725426526</v>
+      </c>
+      <c r="P17">
+        <v>12.04639014146137</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.27015810966736</v>
+        <v>22.52924177412488</v>
       </c>
       <c r="C18">
-        <v>15.48081023639354</v>
+        <v>17.78219856566704</v>
       </c>
       <c r="D18">
-        <v>2.77949298153912</v>
+        <v>5.758005770103898</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.89081020147826</v>
+        <v>26.64519400689295</v>
       </c>
       <c r="G18">
-        <v>40.54827337619011</v>
+        <v>33.92598600713638</v>
       </c>
       <c r="H18">
-        <v>10.95125752657505</v>
+        <v>4.425638664273094</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.257706511411688</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.74688631976662</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.88320978581175</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.647737967816549</v>
       </c>
       <c r="M18">
-        <v>37.10225754606628</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>9.702490005683115</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.58804314336415</v>
+      </c>
+      <c r="P18">
+        <v>12.01026485368695</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.16922011101766</v>
+        <v>22.63009762932932</v>
       </c>
       <c r="C19">
-        <v>15.42073227949516</v>
+        <v>18.10419225475424</v>
       </c>
       <c r="D19">
-        <v>2.780898717602154</v>
+        <v>6.288257718778732</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.77951308064651</v>
+        <v>28.18825775148064</v>
       </c>
       <c r="G19">
-        <v>40.36965030198952</v>
+        <v>35.67307884509885</v>
       </c>
       <c r="H19">
-        <v>10.92387974454839</v>
+        <v>3.053923336985376</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.278951523747714</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.10166453575001</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.42835153564674</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.956893188143296</v>
       </c>
       <c r="M19">
-        <v>36.90167568185554</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>9.730080901305259</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.74489954251888</v>
+      </c>
+      <c r="P19">
+        <v>11.9559811555228</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.62058336186702</v>
+        <v>23.37284580383322</v>
       </c>
       <c r="C20">
-        <v>15.68942772809477</v>
+        <v>19.04473961442712</v>
       </c>
       <c r="D20">
-        <v>2.774526759503857</v>
+        <v>7.256609077802318</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.27982042163348</v>
+        <v>30.91933287714196</v>
       </c>
       <c r="G20">
-        <v>41.17843670824124</v>
+        <v>38.94348313243201</v>
       </c>
       <c r="H20">
-        <v>11.04764628688215</v>
+        <v>2.117586834553053</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.411016899860717</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.7243385255892</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.33028929728665</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.835362627711826</v>
       </c>
       <c r="M20">
-        <v>37.80377945859647</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>9.605728660889843</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.81480099515177</v>
+      </c>
+      <c r="P20">
+        <v>11.83333786503903</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.08728929419323</v>
+        <v>24.83165963339131</v>
       </c>
       <c r="C21">
-        <v>16.56304769919371</v>
+        <v>20.25766898233593</v>
       </c>
       <c r="D21">
-        <v>2.752160481036009</v>
+        <v>7.602299482178505</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.99326691151627</v>
+        <v>32.32905321946983</v>
       </c>
       <c r="G21">
-        <v>43.94062756935956</v>
+        <v>41.00046312196663</v>
       </c>
       <c r="H21">
-        <v>11.47359228312864</v>
+        <v>2.440736497931325</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.654455494267426</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.03652748802353</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.6396033599833</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.116553397606696</v>
       </c>
       <c r="M21">
-        <v>40.83681911181819</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>9.183510708437128</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.93857504133276</v>
+      </c>
+      <c r="P21">
+        <v>11.63475557482371</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.00921373187342</v>
+        <v>25.74742704924757</v>
       </c>
       <c r="C22">
-        <v>17.11215615813354</v>
+        <v>20.97193100641763</v>
       </c>
       <c r="D22">
-        <v>2.736607743071652</v>
+        <v>7.772941688061495</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.20118438503534</v>
+        <v>33.15911241946089</v>
       </c>
       <c r="G22">
-        <v>45.72584892865427</v>
+        <v>42.25360493145441</v>
       </c>
       <c r="H22">
-        <v>11.75989335676421</v>
+        <v>2.640525010123247</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.806013575516173</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.22931961682831</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.83571407513908</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.250281922260319</v>
       </c>
       <c r="M22">
-        <v>42.83730030921761</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>8.902748982440487</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.56627365883292</v>
+      </c>
+      <c r="P22">
+        <v>11.50717992871001</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.52048919473062</v>
+        <v>25.28090773354593</v>
       </c>
       <c r="C23">
-        <v>16.82109619424133</v>
+        <v>20.57159131082276</v>
       </c>
       <c r="D23">
-        <v>2.745010742730224</v>
+        <v>7.675627642970678</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.55801293172588</v>
+        <v>32.75002534017558</v>
       </c>
       <c r="G23">
-        <v>44.77466554082712</v>
+        <v>41.64628628272609</v>
       </c>
       <c r="H23">
-        <v>11.60633379173507</v>
+        <v>2.535107822674061</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.722900040796325</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.13890838440497</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.75878984196366</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.179813265480821</v>
       </c>
       <c r="M23">
-        <v>41.76669099739134</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>9.053149925716166</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.23380999626966</v>
+      </c>
+      <c r="P23">
+        <v>11.5744201925898</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.5959852632813</v>
+        <v>23.4008116807542</v>
       </c>
       <c r="C24">
-        <v>15.67478172443545</v>
+        <v>19.03169741282612</v>
       </c>
       <c r="D24">
-        <v>2.77487979870685</v>
+        <v>7.309440529501899</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.25238138499236</v>
+        <v>31.12479761239516</v>
       </c>
       <c r="G24">
-        <v>41.13291199853256</v>
+        <v>39.20666185081157</v>
       </c>
       <c r="H24">
-        <v>11.04081237927637</v>
+        <v>2.127022993059548</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.407306902202347</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.78010474228651</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.43282409099215</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.906407268081163</v>
       </c>
       <c r="M24">
-        <v>37.75426849976866</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>9.612570687273987</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.92706532108226</v>
+      </c>
+      <c r="P24">
+        <v>11.83221724614272</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.35965436140595</v>
+        <v>21.19107179508531</v>
       </c>
       <c r="C25">
-        <v>14.34515682255113</v>
+        <v>17.24388524929227</v>
       </c>
       <c r="D25">
-        <v>2.804384030336342</v>
+        <v>6.897466913023809</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.84267095912304</v>
+        <v>29.32792229062253</v>
       </c>
       <c r="G25">
-        <v>37.24913407947993</v>
+        <v>36.4874395820485</v>
       </c>
       <c r="H25">
-        <v>10.46263370644184</v>
+        <v>1.669846669363166</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.057496050399579</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.40251070369796</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.10457290220402</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.599782136520024</v>
       </c>
       <c r="M25">
-        <v>33.40663465336181</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>10.20441778475868</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>17.41889099392925</v>
+      </c>
+      <c r="P25">
+        <v>12.11452709292492</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.45996371345489</v>
+        <v>18.95206460590021</v>
       </c>
       <c r="C2">
-        <v>15.7503277034513</v>
+        <v>16.31078113132937</v>
       </c>
       <c r="D2">
-        <v>6.562170519483766</v>
+        <v>6.764408548284043</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.06509917029134</v>
+        <v>27.13846992295965</v>
       </c>
       <c r="G2">
-        <v>34.5885496181573</v>
+        <v>32.38044821407578</v>
       </c>
       <c r="H2">
-        <v>1.807270745688188</v>
+        <v>1.810902897787716</v>
       </c>
       <c r="I2">
-        <v>2.784721787911963</v>
+        <v>2.816495274650539</v>
       </c>
       <c r="J2">
-        <v>11.16634467663252</v>
+        <v>11.25557579625007</v>
       </c>
       <c r="K2">
-        <v>15.95382273432219</v>
+        <v>15.13335408946866</v>
       </c>
       <c r="L2">
-        <v>7.365785675735081</v>
+        <v>13.11297584935051</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.404497449706046</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.359104935472802</v>
       </c>
       <c r="O2">
-        <v>16.22693957998194</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.3265285432685</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.22961246243275</v>
+      </c>
+      <c r="R2">
+        <v>12.28461826376006</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.15662904872573</v>
+        <v>17.72661510261458</v>
       </c>
       <c r="C3">
-        <v>14.70244060572289</v>
+        <v>15.18067255841701</v>
       </c>
       <c r="D3">
-        <v>6.337092440818533</v>
+        <v>6.528406190721357</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.14370857394829</v>
+        <v>26.32251915117582</v>
       </c>
       <c r="G3">
-        <v>33.1740384434507</v>
+        <v>31.16553232281377</v>
       </c>
       <c r="H3">
-        <v>2.06238238781626</v>
+        <v>2.051296087942196</v>
       </c>
       <c r="I3">
-        <v>2.596319069846639</v>
+        <v>2.652726247931539</v>
       </c>
       <c r="J3">
-        <v>10.99319356012782</v>
+        <v>11.08531196979469</v>
       </c>
       <c r="K3">
-        <v>15.82166385285709</v>
+        <v>15.0760470261836</v>
       </c>
       <c r="L3">
-        <v>7.199956946251199</v>
+        <v>13.19380944557059</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.219985274897612</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.205467888431969</v>
       </c>
       <c r="O3">
-        <v>15.36899504651252</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.47352854894962</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.3742185037102</v>
+      </c>
+      <c r="R3">
+        <v>12.40993922321929</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.30516951711207</v>
+        <v>16.92560732925164</v>
       </c>
       <c r="C4">
-        <v>14.02511452389607</v>
+        <v>14.44930076775045</v>
       </c>
       <c r="D4">
-        <v>6.195582327235362</v>
+        <v>6.380439574232474</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.57043460552933</v>
+        <v>25.81420815831568</v>
       </c>
       <c r="G4">
-        <v>32.28776520978182</v>
+        <v>30.4073754380641</v>
       </c>
       <c r="H4">
-        <v>2.224505699882156</v>
+        <v>2.204192106638364</v>
       </c>
       <c r="I4">
-        <v>2.477461059536746</v>
+        <v>2.549498606044498</v>
       </c>
       <c r="J4">
-        <v>10.88913717375534</v>
+        <v>10.97999276868588</v>
       </c>
       <c r="K4">
-        <v>15.74442260311341</v>
+        <v>15.04327474254096</v>
       </c>
       <c r="L4">
-        <v>7.095060357374076</v>
+        <v>13.24192229790312</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.127931837449303</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.108361666679035</v>
       </c>
       <c r="O4">
-        <v>14.81864304107034</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.56529349406424</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.82520257238822</v>
+      </c>
+      <c r="R4">
+        <v>12.48888656154119</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.93863863240004</v>
+        <v>16.5805105136641</v>
       </c>
       <c r="C5">
-        <v>13.74843801037743</v>
+        <v>14.14962989241261</v>
       </c>
       <c r="D5">
-        <v>6.139164729718432</v>
+        <v>6.321468016787554</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.32501738348362</v>
+        <v>25.59558586431713</v>
       </c>
       <c r="G5">
-        <v>31.9033769211178</v>
+        <v>30.07694551786778</v>
       </c>
       <c r="H5">
-        <v>2.292251652560153</v>
+        <v>2.268105322422681</v>
       </c>
       <c r="I5">
-        <v>2.521125320576915</v>
+        <v>2.507681906864081</v>
       </c>
       <c r="J5">
-        <v>10.84373526605822</v>
+        <v>10.93345690973984</v>
       </c>
       <c r="K5">
-        <v>15.70623659830881</v>
+        <v>15.02331649878687</v>
       </c>
       <c r="L5">
-        <v>7.051332851322174</v>
+        <v>13.25505933083045</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.091113425324895</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.067904568936758</v>
       </c>
       <c r="O5">
-        <v>14.58850689609308</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.60295201362821</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.59555760220373</v>
+      </c>
+      <c r="R5">
+        <v>12.52164874813946</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.86891626153317</v>
+        <v>16.51463098475346</v>
       </c>
       <c r="C6">
-        <v>13.71164411051825</v>
+        <v>14.10887611834299</v>
       </c>
       <c r="D6">
-        <v>6.132245383362685</v>
+        <v>6.31412820827468</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.27170954448856</v>
+        <v>25.54712667175493</v>
       </c>
       <c r="G6">
-        <v>31.81579974408917</v>
+        <v>29.99897389395077</v>
       </c>
       <c r="H6">
-        <v>2.303923127155719</v>
+        <v>2.279110910609098</v>
       </c>
       <c r="I6">
-        <v>2.534646587802034</v>
+        <v>2.502100568661011</v>
       </c>
       <c r="J6">
-        <v>10.83184805263205</v>
+        <v>10.9215038084009</v>
       </c>
       <c r="K6">
-        <v>15.69057785796589</v>
+        <v>15.01126492870134</v>
       </c>
       <c r="L6">
-        <v>7.043763873527545</v>
+        <v>13.24979061042522</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.079459846818377</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.060905712667144</v>
       </c>
       <c r="O6">
-        <v>14.54981932719071</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.609082742988</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.55695164754379</v>
+      </c>
+      <c r="R6">
+        <v>12.52723356636112</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.27875674906191</v>
+        <v>16.8916531086117</v>
       </c>
       <c r="C7">
-        <v>14.04716278537148</v>
+        <v>14.45517398114417</v>
       </c>
       <c r="D7">
-        <v>6.201556650911208</v>
+        <v>6.391529025878634</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.53346065777278</v>
+        <v>25.75688579892868</v>
       </c>
       <c r="G7">
-        <v>32.21924042096123</v>
+        <v>30.42370302920374</v>
       </c>
       <c r="H7">
-        <v>2.226321427730921</v>
+        <v>2.20655602873261</v>
       </c>
       <c r="I7">
-        <v>2.479128705418399</v>
+        <v>2.551538434587818</v>
       </c>
       <c r="J7">
-        <v>10.8766121866947</v>
+        <v>10.91438254015834</v>
       </c>
       <c r="K7">
-        <v>15.71836715967268</v>
+        <v>15.0089275541794</v>
       </c>
       <c r="L7">
-        <v>7.093770585606942</v>
+        <v>13.21368777875264</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.103939707336028</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.107158220939247</v>
       </c>
       <c r="O7">
-        <v>14.81520422212245</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.5654715756227</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.81792903672733</v>
+      </c>
+      <c r="R7">
+        <v>12.49000312680597</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.99489470722765</v>
+        <v>18.48815513167056</v>
       </c>
       <c r="C8">
-        <v>15.4273779525967</v>
+        <v>15.91213356733622</v>
       </c>
       <c r="D8">
-        <v>6.49382328059893</v>
+        <v>6.708827336440494</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.70635367704038</v>
+        <v>26.7477768429647</v>
       </c>
       <c r="G8">
-        <v>34.02502768621882</v>
+        <v>32.14909938144442</v>
       </c>
       <c r="H8">
-        <v>1.895258714068054</v>
+        <v>1.895851110397737</v>
       </c>
       <c r="I8">
-        <v>2.722661739305773</v>
+        <v>2.761851556470622</v>
       </c>
       <c r="J8">
-        <v>11.09073934626006</v>
+        <v>11.00860139532421</v>
       </c>
       <c r="K8">
-        <v>15.87402312860635</v>
+        <v>15.04858554030162</v>
       </c>
       <c r="L8">
-        <v>7.308373814821004</v>
+        <v>13.09036087273275</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.288250034383069</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.305947588838825</v>
       </c>
       <c r="O8">
-        <v>15.93563738963909</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.3767962062081</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.92724046269898</v>
+      </c>
+      <c r="R8">
+        <v>12.32978058150162</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.9913729096007</v>
+        <v>21.30028510532868</v>
       </c>
       <c r="C9">
-        <v>17.82597615930514</v>
+        <v>18.49078115835809</v>
       </c>
       <c r="D9">
-        <v>7.027638666240597</v>
+        <v>7.273930587983113</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.99241843847975</v>
+        <v>28.75979376761143</v>
       </c>
       <c r="G9">
-        <v>37.51337464682533</v>
+        <v>35.21833836651238</v>
       </c>
       <c r="H9">
-        <v>1.827646328341046</v>
+        <v>1.791670097970535</v>
       </c>
       <c r="I9">
-        <v>3.173479336115327</v>
+        <v>3.152327222385112</v>
       </c>
       <c r="J9">
-        <v>11.54853154748822</v>
+        <v>11.40085411408287</v>
       </c>
       <c r="K9">
-        <v>16.25634009148185</v>
+        <v>15.22624290598322</v>
       </c>
       <c r="L9">
-        <v>7.705721203587341</v>
+        <v>12.89994251098461</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.868449119304474</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.674574874765533</v>
       </c>
       <c r="O9">
-        <v>17.94055454547369</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.01826975538125</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.92259616665325</v>
+      </c>
+      <c r="R9">
+        <v>12.02898275227386</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.91517573389129</v>
+        <v>23.06970108852548</v>
       </c>
       <c r="C10">
-        <v>19.38515456825072</v>
+        <v>20.0890832108322</v>
       </c>
       <c r="D10">
-        <v>7.317753390783552</v>
+        <v>7.60819376336765</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.38094241372752</v>
+        <v>29.85763239044095</v>
       </c>
       <c r="G10">
-        <v>39.68231293358441</v>
+        <v>37.53534692553775</v>
       </c>
       <c r="H10">
-        <v>2.224833835198869</v>
+        <v>2.161288910876372</v>
       </c>
       <c r="I10">
-        <v>3.485847107751373</v>
+        <v>3.420546523470049</v>
       </c>
       <c r="J10">
-        <v>11.83738209024851</v>
+        <v>11.34962896843703</v>
       </c>
       <c r="K10">
-        <v>16.46607710492368</v>
+        <v>15.23768273831076</v>
       </c>
       <c r="L10">
-        <v>7.888849070468225</v>
+        <v>12.66007088406217</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.26654920310527</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.838201867831474</v>
       </c>
       <c r="O10">
-        <v>19.12771427719674</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.76575169866965</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.08396370096056</v>
+      </c>
+      <c r="R10">
+        <v>11.83151921254526</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.47583956956759</v>
+        <v>23.55705839598717</v>
       </c>
       <c r="C11">
-        <v>19.637652394465</v>
+        <v>20.17600245880216</v>
       </c>
       <c r="D11">
-        <v>6.738865940651206</v>
+        <v>7.04215746542009</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.05479327219432</v>
+        <v>28.33630994481778</v>
       </c>
       <c r="G11">
-        <v>38.40004049790289</v>
+        <v>37.18988736570888</v>
       </c>
       <c r="H11">
-        <v>3.037594315155463</v>
+        <v>2.983022555443683</v>
       </c>
       <c r="I11">
-        <v>3.578117019494067</v>
+        <v>3.497055276791789</v>
       </c>
       <c r="J11">
-        <v>11.50719294284853</v>
+        <v>10.46483762346895</v>
       </c>
       <c r="K11">
-        <v>15.83581412497818</v>
+        <v>14.54327989053678</v>
       </c>
       <c r="L11">
-        <v>7.27602316207918</v>
+        <v>12.07681089646857</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.860832895947466</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.214193439243735</v>
       </c>
       <c r="O11">
-        <v>18.247727558156</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.71243405098479</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.16601642448911</v>
+      </c>
+      <c r="R11">
+        <v>11.85362140164247</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.58351453524579</v>
+        <v>23.65656787731177</v>
       </c>
       <c r="C12">
-        <v>19.50135010659971</v>
+        <v>19.93333727441366</v>
       </c>
       <c r="D12">
-        <v>6.217228483802872</v>
+        <v>6.495242918798157</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.66493214724559</v>
+        <v>26.91116942723139</v>
       </c>
       <c r="G12">
-        <v>36.91834994848652</v>
+        <v>36.22232474233942</v>
       </c>
       <c r="H12">
-        <v>4.247196541849728</v>
+        <v>4.207894568405866</v>
       </c>
       <c r="I12">
-        <v>3.591497719689617</v>
+        <v>3.506158245849416</v>
       </c>
       <c r="J12">
-        <v>11.17707907495431</v>
+        <v>9.930068622541734</v>
       </c>
       <c r="K12">
-        <v>15.2902145453397</v>
+        <v>14.02283683055776</v>
       </c>
       <c r="L12">
-        <v>6.897570583898474</v>
+        <v>11.69302582725656</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.479292709104767</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.828691328658169</v>
       </c>
       <c r="O12">
-        <v>17.24540502999507</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.74220820957822</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.14825711427654</v>
+      </c>
+      <c r="R12">
+        <v>11.93061160542248</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.3285141109633</v>
+        <v>23.45997734193131</v>
       </c>
       <c r="C13">
-        <v>19.08292445762271</v>
+        <v>19.47308753970935</v>
       </c>
       <c r="D13">
-        <v>5.718790347165916</v>
+        <v>5.933956583195879</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.06816271036099</v>
+        <v>25.44799709485629</v>
       </c>
       <c r="G13">
-        <v>35.06842642485135</v>
+        <v>34.42378423451665</v>
       </c>
       <c r="H13">
-        <v>5.539351851025158</v>
+        <v>5.512454967940966</v>
       </c>
       <c r="I13">
-        <v>3.547710817837586</v>
+        <v>3.469441131326498</v>
       </c>
       <c r="J13">
-        <v>10.80567167564917</v>
+        <v>9.701110384020728</v>
       </c>
       <c r="K13">
-        <v>14.73564190822846</v>
+        <v>13.58804790613464</v>
       </c>
       <c r="L13">
-        <v>6.697244557061996</v>
+        <v>11.41702130944389</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.082069476497322</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.627528072780022</v>
       </c>
       <c r="O13">
-        <v>16.06042876370455</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.83299449056559</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.9712385116265</v>
+      </c>
+      <c r="R13">
+        <v>12.04077311430365</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.97773066532093</v>
+        <v>23.18050990463018</v>
       </c>
       <c r="C14">
-        <v>18.66253230968125</v>
+        <v>19.05047340794993</v>
       </c>
       <c r="D14">
-        <v>5.393938930983312</v>
+        <v>5.551589111136013</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.8370240166526</v>
+        <v>24.38507946342255</v>
       </c>
       <c r="G14">
-        <v>33.57048781462063</v>
+        <v>32.76065146982207</v>
       </c>
       <c r="H14">
-        <v>6.472805221751934</v>
+        <v>6.452828366308191</v>
       </c>
       <c r="I14">
-        <v>3.49223401675914</v>
+        <v>3.424282125325564</v>
       </c>
       <c r="J14">
-        <v>10.5230335900939</v>
+        <v>9.660735062504497</v>
       </c>
       <c r="K14">
-        <v>14.3383145975393</v>
+        <v>13.31452574554118</v>
       </c>
       <c r="L14">
-        <v>6.672658423811171</v>
+        <v>11.26336874224717</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.792108729460631</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.606871285407384</v>
       </c>
       <c r="O14">
-        <v>15.13371384736856</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.9251081893266</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.06014082992676</v>
+      </c>
+      <c r="R14">
+        <v>12.13149895402324</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.8066436240302</v>
+        <v>23.0403030348522</v>
       </c>
       <c r="C15">
-        <v>18.50560264896704</v>
+        <v>18.90443550757387</v>
       </c>
       <c r="D15">
-        <v>5.316201318962188</v>
+        <v>5.456268814242163</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.48327595278123</v>
+        <v>24.10430053958818</v>
       </c>
       <c r="G15">
-        <v>33.1053305149915</v>
+        <v>32.1701319221922</v>
       </c>
       <c r="H15">
-        <v>6.684795075627265</v>
+        <v>6.672919270713022</v>
       </c>
       <c r="I15">
-        <v>3.467068812628521</v>
+        <v>3.40453863232335</v>
       </c>
       <c r="J15">
-        <v>10.44230967886363</v>
+        <v>9.699622336321722</v>
       </c>
       <c r="K15">
-        <v>14.23251053050675</v>
+        <v>13.25616289566472</v>
       </c>
       <c r="L15">
-        <v>6.678124747326835</v>
+        <v>11.23937313454449</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.711811373181581</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.615108329392074</v>
       </c>
       <c r="O15">
-        <v>14.86743494183641</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.95819855981613</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.80196003244464</v>
+      </c>
+      <c r="R15">
+        <v>12.15837881497218</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.04426398356814</v>
+        <v>22.39239959097375</v>
       </c>
       <c r="C16">
-        <v>17.93089378904111</v>
+        <v>18.42283666692018</v>
       </c>
       <c r="D16">
-        <v>5.276984002037938</v>
+        <v>5.389129929426064</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.12868818405787</v>
+        <v>24.01391929332101</v>
       </c>
       <c r="G16">
-        <v>32.41260385969997</v>
+        <v>30.78160930097892</v>
       </c>
       <c r="H16">
-        <v>6.450735513289346</v>
+        <v>6.461075541228019</v>
       </c>
       <c r="I16">
-        <v>3.344939218582093</v>
+        <v>3.305350577505069</v>
       </c>
       <c r="J16">
-        <v>10.37782857782418</v>
+        <v>10.14182388663992</v>
       </c>
       <c r="K16">
-        <v>14.23392040816447</v>
+        <v>13.39662099390194</v>
       </c>
       <c r="L16">
-        <v>6.627083935269301</v>
+        <v>11.40961801055989</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.678601385478267</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.578126971645822</v>
       </c>
       <c r="O16">
-        <v>14.5353425780712</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.03497708563024</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.50566182369263</v>
+      </c>
+      <c r="R16">
+        <v>12.18525644491434</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.64139847210391</v>
+        <v>22.0288177917261</v>
       </c>
       <c r="C17">
-        <v>17.7172667936708</v>
+        <v>18.26498220024135</v>
       </c>
       <c r="D17">
-        <v>5.416067833522348</v>
+        <v>5.536381978109105</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.52918893660537</v>
+        <v>24.49957170359019</v>
       </c>
       <c r="G17">
-        <v>32.70732769237416</v>
+        <v>30.73896622390208</v>
       </c>
       <c r="H17">
-        <v>5.702822706456855</v>
+        <v>5.71330357146294</v>
       </c>
       <c r="I17">
-        <v>3.280529529215559</v>
+        <v>3.252382287817979</v>
       </c>
       <c r="J17">
-        <v>10.48111395952253</v>
+        <v>10.44836269331634</v>
       </c>
       <c r="K17">
-        <v>14.4465236315566</v>
+        <v>13.63887578777308</v>
       </c>
       <c r="L17">
-        <v>6.581181393096701</v>
+        <v>11.62149850437956</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.796179740258193</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.538940639954877</v>
       </c>
       <c r="O17">
-        <v>14.7921725426526</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.04639014146137</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.77731264584386</v>
+      </c>
+      <c r="R17">
+        <v>12.16582958943012</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.52924177412488</v>
+        <v>21.90797067537743</v>
       </c>
       <c r="C18">
-        <v>17.78219856566704</v>
+        <v>18.38487846357949</v>
       </c>
       <c r="D18">
-        <v>5.758005770103898</v>
+        <v>5.9074644341256</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.64519400689295</v>
+        <v>25.59673964199352</v>
       </c>
       <c r="G18">
-        <v>33.92598600713638</v>
+        <v>31.7356207861496</v>
       </c>
       <c r="H18">
-        <v>4.425638664273094</v>
+        <v>4.432433766067304</v>
       </c>
       <c r="I18">
-        <v>3.257706511411688</v>
+        <v>3.231972810103251</v>
       </c>
       <c r="J18">
-        <v>10.74688631976662</v>
+        <v>10.77394699115021</v>
       </c>
       <c r="K18">
-        <v>14.88320978581175</v>
+        <v>14.03468160328599</v>
       </c>
       <c r="L18">
-        <v>6.647737967816549</v>
+        <v>11.92364946832842</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.081551403834718</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.607722875418219</v>
       </c>
       <c r="O18">
-        <v>15.58804314336415</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.01026485368695</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.57821255846552</v>
+      </c>
+      <c r="R18">
+        <v>12.10463665800945</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.63009762932932</v>
+        <v>21.9693340546565</v>
       </c>
       <c r="C19">
-        <v>18.10419225475424</v>
+        <v>18.76647964668394</v>
       </c>
       <c r="D19">
-        <v>6.288257718778732</v>
+        <v>6.477273470364914</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.18825775148064</v>
+        <v>27.05884970304673</v>
       </c>
       <c r="G19">
-        <v>35.67307884509885</v>
+        <v>33.30815983174508</v>
       </c>
       <c r="H19">
-        <v>3.053923336985376</v>
+        <v>3.030153582857878</v>
       </c>
       <c r="I19">
-        <v>3.278951523747714</v>
+        <v>3.250829992658821</v>
       </c>
       <c r="J19">
-        <v>11.10166453575001</v>
+        <v>11.1114619497119</v>
       </c>
       <c r="K19">
-        <v>15.42835153564674</v>
+        <v>14.49719393087272</v>
       </c>
       <c r="L19">
-        <v>6.956893188143296</v>
+        <v>12.25812827344859</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.453525522562265</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.916640014957491</v>
       </c>
       <c r="O19">
-        <v>16.74489954251888</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.9559811555228</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.73454945116271</v>
+      </c>
+      <c r="R19">
+        <v>12.02827813735309</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.37284580383322</v>
+        <v>22.59211685953069</v>
       </c>
       <c r="C20">
-        <v>19.04473961442712</v>
+        <v>19.78043892128644</v>
       </c>
       <c r="D20">
-        <v>7.256609077802318</v>
+        <v>7.519368880393848</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.91933287714196</v>
+        <v>29.54289663091529</v>
       </c>
       <c r="G20">
-        <v>38.94348313243201</v>
+        <v>36.51165699049209</v>
       </c>
       <c r="H20">
-        <v>2.117586834553053</v>
+        <v>2.063371687894215</v>
       </c>
       <c r="I20">
-        <v>3.411016899860717</v>
+        <v>3.362859471426253</v>
       </c>
       <c r="J20">
-        <v>11.7243385255892</v>
+        <v>11.50489877915067</v>
       </c>
       <c r="K20">
-        <v>16.33028929728665</v>
+        <v>15.19544312451798</v>
       </c>
       <c r="L20">
-        <v>7.835362627711826</v>
+        <v>12.69624420565528</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.12579098062782</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.789787094397912</v>
       </c>
       <c r="O20">
-        <v>18.81480099515177</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.83333786503903</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.78902650486778</v>
+      </c>
+      <c r="R20">
+        <v>11.88474603881357</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.83165963339131</v>
+        <v>23.80785304194093</v>
       </c>
       <c r="C21">
-        <v>20.25766898233593</v>
+        <v>20.81589332751017</v>
       </c>
       <c r="D21">
-        <v>7.602299482178505</v>
+        <v>7.991701093750595</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.32905321946983</v>
+        <v>30.36203234004121</v>
       </c>
       <c r="G21">
-        <v>41.00046312196663</v>
+        <v>39.94618643686509</v>
       </c>
       <c r="H21">
-        <v>2.440736497931325</v>
+        <v>2.354626859969501</v>
       </c>
       <c r="I21">
-        <v>3.654455494267426</v>
+        <v>3.560636541195294</v>
       </c>
       <c r="J21">
-        <v>12.03652748802353</v>
+        <v>10.64630480494186</v>
       </c>
       <c r="K21">
-        <v>16.6396033599833</v>
+        <v>15.14700903106083</v>
       </c>
       <c r="L21">
-        <v>8.116553397606696</v>
+        <v>12.47340969812555</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.39770492815141</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.05833050923545</v>
       </c>
       <c r="O21">
-        <v>19.93857504133276</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.63475557482371</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.8350874928019</v>
+      </c>
+      <c r="R21">
+        <v>11.74055908747884</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.74742704924757</v>
+        <v>24.56578903253275</v>
       </c>
       <c r="C22">
-        <v>20.97193100641763</v>
+        <v>21.40166324678933</v>
       </c>
       <c r="D22">
-        <v>7.772941688061495</v>
+        <v>8.248203310828597</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.15911241946089</v>
+        <v>30.79424413806494</v>
       </c>
       <c r="G22">
-        <v>42.25360493145441</v>
+        <v>42.17728554832102</v>
       </c>
       <c r="H22">
-        <v>2.640525010123247</v>
+        <v>2.533995805303769</v>
       </c>
       <c r="I22">
-        <v>3.806013575516173</v>
+        <v>3.6816701417594</v>
       </c>
       <c r="J22">
-        <v>12.22931961682831</v>
+        <v>10.03972099030358</v>
       </c>
       <c r="K22">
-        <v>16.83571407513908</v>
+        <v>15.09787291121646</v>
       </c>
       <c r="L22">
-        <v>8.250281922260319</v>
+        <v>12.3160989565098</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.56776694482834</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.184821160774812</v>
       </c>
       <c r="O22">
-        <v>20.56627365883292</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.50717992871001</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.40947147387808</v>
+      </c>
+      <c r="R22">
+        <v>11.65397039607583</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.28090773354593</v>
+        <v>24.19861320603792</v>
       </c>
       <c r="C23">
-        <v>20.57159131082276</v>
+        <v>21.09930206126142</v>
       </c>
       <c r="D23">
-        <v>7.675627642970678</v>
+        <v>8.092961114479804</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.75002534017558</v>
+        <v>30.6441437079499</v>
       </c>
       <c r="G23">
-        <v>41.64628628272609</v>
+        <v>40.86915307192434</v>
       </c>
       <c r="H23">
-        <v>2.535107822674061</v>
+        <v>2.440540764683057</v>
       </c>
       <c r="I23">
-        <v>3.722900040796325</v>
+        <v>3.614684232375186</v>
       </c>
       <c r="J23">
-        <v>12.13890838440497</v>
+        <v>10.49085993245283</v>
       </c>
       <c r="K23">
-        <v>16.75878984196366</v>
+        <v>15.17502037043987</v>
       </c>
       <c r="L23">
-        <v>8.179813265480821</v>
+        <v>12.43387599107869</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.51974008867552</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.117707638452677</v>
       </c>
       <c r="O23">
-        <v>20.23380999626966</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.5744201925898</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.11321964916387</v>
+      </c>
+      <c r="R23">
+        <v>11.6948397919046</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.4008116807542</v>
+        <v>22.61674910002031</v>
       </c>
       <c r="C24">
-        <v>19.03169741282612</v>
+        <v>19.7748567873073</v>
       </c>
       <c r="D24">
-        <v>7.309440529501899</v>
+        <v>7.574774693605002</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.12479761239516</v>
+        <v>29.74209921219428</v>
       </c>
       <c r="G24">
-        <v>39.20666185081157</v>
+        <v>36.74593822930578</v>
       </c>
       <c r="H24">
-        <v>2.127022993059548</v>
+        <v>2.072432900640858</v>
       </c>
       <c r="I24">
-        <v>3.407306902202347</v>
+        <v>3.356848279480091</v>
       </c>
       <c r="J24">
-        <v>11.78010474228651</v>
+        <v>11.56473871162316</v>
       </c>
       <c r="K24">
-        <v>16.43282409099215</v>
+        <v>15.28807932242729</v>
       </c>
       <c r="L24">
-        <v>7.906407268081163</v>
+        <v>12.76425604563043</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.1981560159113</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.860980964044156</v>
       </c>
       <c r="O24">
-        <v>18.92706532108226</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.83221724614272</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.90165652186979</v>
+      </c>
+      <c r="R24">
+        <v>11.8780358448824</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.19107179508531</v>
+        <v>20.55884665095521</v>
       </c>
       <c r="C25">
-        <v>17.24388524929227</v>
+        <v>17.88108017367904</v>
       </c>
       <c r="D25">
-        <v>6.897466913023809</v>
+        <v>7.128565959507871</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.32792229062253</v>
+        <v>28.19885249878087</v>
       </c>
       <c r="G25">
-        <v>36.4874395820485</v>
+        <v>34.19707904014547</v>
       </c>
       <c r="H25">
-        <v>1.669846669363166</v>
+        <v>1.644279598116314</v>
       </c>
       <c r="I25">
-        <v>3.057496050399579</v>
+        <v>3.055083330142723</v>
       </c>
       <c r="J25">
-        <v>11.40251070369796</v>
+        <v>11.34874832593124</v>
       </c>
       <c r="K25">
-        <v>16.10457290220402</v>
+        <v>15.14841572552311</v>
       </c>
       <c r="L25">
-        <v>7.599782136520024</v>
+        <v>12.93279599923076</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.673487897837321</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.576222341996601</v>
       </c>
       <c r="O25">
-        <v>17.41889099392925</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.11452709292492</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>17.40852648193058</v>
+      </c>
+      <c r="R25">
+        <v>12.1099422994258</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
